--- a/resources/results/randomsearch/randomsearch_results.xlsx
+++ b/resources/results/randomsearch/randomsearch_results.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valentin\Documents\10. Semester\WR2\Projekt 3 - FNN CLF\WR-2-3-FFN-CLF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valentin\Documents\10. Semester\WR2\Projekt 3 - FNN CLF\WR-2-3-FFN-CLF\resources\results\randomsearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6577411D-C136-4A95-93E7-366FFBC069FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23749D26-2D94-4C1D-8DD6-4DC21510EF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="randomsearch_results" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">randomsearch_results!$A$1:$Y$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">randomsearch_results!$A$1:$X$41</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
   <si>
     <t>mean_fit_time</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>param_activation</t>
-  </si>
-  <si>
-    <t>params</t>
   </si>
   <si>
     <t>mean_test_accuracy</t>
@@ -100,133 +97,13 @@
     <t>sigmoid</t>
   </si>
   <si>
-    <t>{'n_hidden_layers': 4, 'learning_rate': 0.1, 'layer_size': 200, 'epochs': 150, 'dropout_rate': 0.5, 'batch_size': 16, 'activation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'n_hidden_layers': 3, 'learning_rate': 0.1, 'layer_size': 500, 'epochs': 150, 'dropout_rate': 0.5, 'batch_size': 32, 'activation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'n_hidden_layers': 5, 'learning_rate': 0.1, 'layer_size': 200, 'epochs': 150, 'dropout_rate': 0, 'batch_size': 16, 'activation': 'sigmoid'}</t>
-  </si>
-  <si>
     <t>relu</t>
-  </si>
-  <si>
-    <t>{'n_hidden_layers': 3, 'learning_rate': 0.1, 'layer_size': 200, 'epochs': 100, 'dropout_rate': 0.5, 'batch_size': 16, 'activation': 'relu'}</t>
-  </si>
-  <si>
-    <t>{'n_hidden_layers': 4, 'learning_rate': 0.1, 'layer_size': 100, 'epochs': 50, 'dropout_rate': 0.1, 'batch_size': 64, 'activation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'n_hidden_layers': 5, 'learning_rate': 0.1, 'layer_size': 500, 'epochs': 100, 'dropout_rate': 0.5, 'batch_size': 64, 'activation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'n_hidden_layers': 5, 'learning_rate': 0.01, 'layer_size': 500, 'epochs': 50, 'dropout_rate': 0.1, 'batch_size': 8, 'activation': 'relu'}</t>
-  </si>
-  <si>
-    <t>{'n_hidden_layers': 2, 'learning_rate': 0.1, 'layer_size': 100, 'epochs': 50, 'dropout_rate': 0.5, 'batch_size': 8, 'activation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'n_hidden_layers': 5, 'learning_rate': 0.01, 'layer_size': 500, 'epochs': 50, 'dropout_rate': 0.1, 'batch_size': 64, 'activation': 'relu'}</t>
-  </si>
-  <si>
-    <t>{'n_hidden_layers': 3, 'learning_rate': 0.01, 'layer_size': 500, 'epochs': 100, 'dropout_rate': 0.2, 'batch_size': 8, 'activation': 'relu'}</t>
-  </si>
-  <si>
-    <t>{'n_hidden_layers': 3, 'learning_rate': 0.1, 'layer_size': 200, 'epochs': 150, 'dropout_rate': 0.5, 'batch_size': 64, 'activation': 'relu'}</t>
-  </si>
-  <si>
-    <t>{'n_hidden_layers': 3, 'learning_rate': 0.01, 'layer_size': 500, 'epochs': 100, 'dropout_rate': 0.1, 'batch_size': 64, 'activation': 'relu'}</t>
-  </si>
-  <si>
-    <t>{'n_hidden_layers': 3, 'learning_rate': 0.01, 'layer_size': 500, 'epochs': 150, 'dropout_rate': 0.5, 'batch_size': 32, 'activation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'n_hidden_layers': 2, 'learning_rate': 0.1, 'layer_size': 500, 'epochs': 100, 'dropout_rate': 0.5, 'batch_size': 64}</t>
-  </si>
-  <si>
-    <t>{'n_hidden_layers': 2, 'learning_rate': 0.1, 'layer_size': 500, 'epochs': 50, 'dropout_rate': 0.1, 'batch_size': 32, 'activation': 'relu'}</t>
-  </si>
-  <si>
-    <t>{'n_hidden_layers': 5, 'learning_rate': 0.01, 'layer_size': 200, 'epochs': 150, 'dropout_rate': 0.5, 'batch_size': 16, 'activation': 'relu'}</t>
-  </si>
-  <si>
-    <t>{'n_hidden_layers': 5, 'learning_rate': 0.01, 'layer_size': 200, 'epochs': 50, 'dropout_rate': 0.2, 'batch_size': 8, 'activation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'n_hidden_layers': 3, 'learning_rate': 0.1, 'layer_size': 500, 'epochs': 50, 'dropout_rate': 0.5, 'batch_size': 64, 'activation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'n_hidden_layers': 5, 'learning_rate': 0.01, 'layer_size': 100, 'epochs': 150, 'dropout_rate': 0.1, 'batch_size': 16, 'activation': 'relu'}</t>
-  </si>
-  <si>
-    <t>{'n_hidden_layers': 5, 'learning_rate': 0.01, 'layer_size': 100, 'epochs': 150, 'dropout_rate': 0.5, 'batch_size': 16, 'activation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'n_hidden_layers': 5, 'learning_rate': 0.01, 'layer_size': 100, 'epochs': 100, 'dropout_rate': 0.1, 'batch_size': 16, 'activation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'n_hidden_layers': 3, 'learning_rate': 0.01, 'layer_size': 100, 'epochs': 150, 'dropout_rate': 0, 'batch_size': 32, 'activation': 'relu'}</t>
-  </si>
-  <si>
-    <t>{'n_hidden_layers': 3, 'learning_rate': 0.01, 'layer_size': 200, 'epochs': 150, 'dropout_rate': 0.1, 'batch_size': 32, 'activation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'n_hidden_layers': 2, 'learning_rate': 0.01, 'layer_size': 500, 'epochs': 150, 'dropout_rate': 0.2, 'batch_size': 32, 'activation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'n_hidden_layers': 2, 'learning_rate': 0.01, 'layer_size': 200, 'epochs': 50, 'dropout_rate': 0.2, 'batch_size': 32, 'activation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'n_hidden_layers': 3, 'learning_rate': 0.01, 'layer_size': 100, 'epochs': 100, 'dropout_rate': 0, 'batch_size': 32, 'activation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'n_hidden_layers': 3, 'learning_rate': 0.01, 'layer_size': 100, 'epochs': 150, 'dropout_rate': 0.5, 'batch_size': 64, 'activation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'n_hidden_layers': 2, 'learning_rate': 0.001, 'layer_size': 200, 'epochs': 100, 'dropout_rate': 0, 'batch_size': 64, 'activation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'n_hidden_layers': 2, 'learning_rate': 0.001, 'layer_size': 500, 'epochs': 50, 'dropout_rate': 0.2, 'batch_size': 32, 'activation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'n_hidden_layers': 5, 'learning_rate': 0.001, 'layer_size': 500, 'epochs': 100, 'dropout_rate': 0.1, 'batch_size': 32, 'activation': 'relu'}</t>
-  </si>
-  <si>
-    <t>{'n_hidden_layers': 2, 'learning_rate': 0.001, 'layer_size': 100, 'epochs': 50, 'dropout_rate': 0.2, 'batch_size': 64, 'activation': 'relu'}</t>
-  </si>
-  <si>
-    <t>{'n_hidden_layers': 3, 'learning_rate': 0.001, 'layer_size': 100, 'epochs': 50, 'dropout_rate': 0.2, 'batch_size': 8, 'activation': 'relu'}</t>
-  </si>
-  <si>
-    <t>{'n_hidden_layers': 3, 'learning_rate': 0.001, 'layer_size': 500, 'epochs': 100, 'dropout_rate': 0.5, 'batch_size': 64, 'activation': 'relu'}</t>
-  </si>
-  <si>
-    <t>{'n_hidden_layers': 3, 'learning_rate': 0.001, 'layer_size': 200, 'epochs': 150, 'dropout_rate': 0.5, 'batch_size': 32}</t>
-  </si>
-  <si>
-    <t>{'n_hidden_layers': 3, 'learning_rate': 0.001, 'layer_size': 100, 'epochs': 150, 'dropout_rate': 0.2, 'batch_size': 64, 'activation': 'relu'}</t>
-  </si>
-  <si>
-    <t>{'n_hidden_layers': 2, 'learning_rate': 0.001, 'layer_size': 500, 'epochs': 50, 'dropout_rate': 0.2, 'batch_size': 64, 'activation': 'relu'}</t>
-  </si>
-  <si>
-    <t>{'n_hidden_layers': 2, 'learning_rate': 0.001, 'layer_size': 500, 'epochs': 150, 'dropout_rate': 0.2, 'batch_size': 64, 'activation': 'sigmoid'}</t>
-  </si>
-  <si>
-    <t>{'n_hidden_layers': 5, 'learning_rate': 0.001, 'layer_size': 200, 'epochs': 50, 'dropout_rate': 0, 'batch_size': 32, 'activation': 'relu'}</t>
-  </si>
-  <si>
-    <t>{'n_hidden_layers': 3, 'learning_rate': 0.001, 'layer_size': 200, 'epochs': 150, 'dropout_rate': 0.2, 'batch_size': 64, 'activation': 'relu'}</t>
-  </si>
-  <si>
-    <t>{'n_hidden_layers': 5, 'learning_rate': 0.001, 'layer_size': 500, 'epochs': 100, 'dropout_rate': 0.1, 'batch_size': 64, 'activation': 'relu'}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1061,19 +938,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I15" sqref="H15:I15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="22" max="22" width="19" customWidth="1"/>
+    <col min="21" max="21" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1143,11 +1020,8 @@
       <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>22</v>
       </c>
@@ -1182,49 +1056,46 @@
         <v>64</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" t="s">
-        <v>65</v>
+        <v>24</v>
+      </c>
+      <c r="M2">
+        <v>0.97720268692214396</v>
       </c>
       <c r="N2">
-        <v>0.97720268692214396</v>
+        <v>2.3168601166207799E-3</v>
       </c>
       <c r="O2">
-        <v>2.3168601166207799E-3</v>
+        <v>0.99853697248742002</v>
       </c>
       <c r="P2">
-        <v>0.99853697248742002</v>
+        <v>8.5270856988343697E-4</v>
       </c>
       <c r="Q2">
-        <v>8.5270856988343697E-4</v>
+        <v>0.367449370499352</v>
       </c>
       <c r="R2">
-        <v>0.367449370499352</v>
+        <v>3.7343372739229198E-2</v>
       </c>
       <c r="S2">
-        <v>3.7343372739229198E-2</v>
+        <v>2.3581317241850901E-2</v>
       </c>
       <c r="T2">
-        <v>2.3581317241850901E-2</v>
+        <v>1.3744038206933601E-2</v>
       </c>
       <c r="U2">
-        <v>1.3744038206933601E-2</v>
+        <v>0.92290579258278405</v>
       </c>
       <c r="V2">
-        <v>0.92290579258278405</v>
+        <v>9.4956513942666097E-3</v>
       </c>
       <c r="W2">
-        <v>9.4956513942666097E-3</v>
+        <v>0.99572838531104202</v>
       </c>
       <c r="X2">
-        <v>0.99572838531104202</v>
-      </c>
-      <c r="Y2">
         <v>1.88735939673776E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>38</v>
       </c>
@@ -1259,49 +1130,46 @@
         <v>64</v>
       </c>
       <c r="L3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" t="s">
-        <v>64</v>
+        <v>24</v>
+      </c>
+      <c r="M3">
+        <v>0.97585985068832404</v>
       </c>
       <c r="N3">
-        <v>0.97585985068832404</v>
+        <v>1.8229527684501801E-3</v>
       </c>
       <c r="O3">
-        <v>1.8229527684501801E-3</v>
+        <v>0.99876623394135999</v>
       </c>
       <c r="P3">
-        <v>0.99876623394135999</v>
+        <v>3.2151218909902201E-4</v>
       </c>
       <c r="Q3">
-        <v>3.2151218909902201E-4</v>
+        <v>0.38909333322484801</v>
       </c>
       <c r="R3">
-        <v>0.38909333322484801</v>
+        <v>2.93825269068533E-2</v>
       </c>
       <c r="S3">
-        <v>2.93825269068533E-2</v>
+        <v>1.98860592210067E-2</v>
       </c>
       <c r="T3">
-        <v>1.98860592210067E-2</v>
+        <v>5.1821641849360903E-3</v>
       </c>
       <c r="U3">
-        <v>5.1821641849360903E-3</v>
+        <v>0.90888848899632502</v>
       </c>
       <c r="V3">
-        <v>0.90888848899632502</v>
+        <v>1.70695009775697E-2</v>
       </c>
       <c r="W3">
-        <v>1.70695009775697E-2</v>
+        <v>0.99619553246649495</v>
       </c>
       <c r="X3">
-        <v>0.99619553246649495</v>
-      </c>
-      <c r="Y3">
         <v>1.13836752920023E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1336,49 +1204,46 @@
         <v>32</v>
       </c>
       <c r="L4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" t="s">
-        <v>63</v>
+        <v>24</v>
+      </c>
+      <c r="M4">
+        <v>0.97330496515186604</v>
       </c>
       <c r="N4">
-        <v>0.97330496515186604</v>
+        <v>2.0322710882217398E-3</v>
       </c>
       <c r="O4">
-        <v>2.0322710882217398E-3</v>
+        <v>0.99624410522793905</v>
       </c>
       <c r="P4">
-        <v>0.99624410522793905</v>
+        <v>2.6510263764536598E-3</v>
       </c>
       <c r="Q4">
-        <v>2.6510263764536598E-3</v>
+        <v>0.43027322242382199</v>
       </c>
       <c r="R4">
-        <v>0.43027322242382199</v>
+        <v>3.27563395843493E-2</v>
       </c>
       <c r="S4">
-        <v>3.27563395843493E-2</v>
+        <v>6.0537970815954398E-2</v>
       </c>
       <c r="T4">
-        <v>6.0537970815954398E-2</v>
+        <v>4.2729496443592002E-2</v>
       </c>
       <c r="U4">
-        <v>4.2729496443592002E-2</v>
+        <v>0.89988609477325399</v>
       </c>
       <c r="V4">
-        <v>0.89988609477325399</v>
+        <v>2.9148332243144E-2</v>
       </c>
       <c r="W4">
-        <v>2.9148332243144E-2</v>
+        <v>0.98331184772435498</v>
       </c>
       <c r="X4">
-        <v>0.98331184772435498</v>
-      </c>
-      <c r="Y4">
         <v>1.9401859442084599E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>13</v>
       </c>
@@ -1413,49 +1278,46 @@
         <v>64</v>
       </c>
       <c r="L5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" t="s">
-        <v>62</v>
+        <v>23</v>
+      </c>
+      <c r="M5">
+        <v>0.97284654142294502</v>
       </c>
       <c r="N5">
-        <v>0.97284654142294502</v>
+        <v>2.8619990244684399E-3</v>
       </c>
       <c r="O5">
-        <v>2.8619990244684399E-3</v>
+        <v>0.99530514381330504</v>
       </c>
       <c r="P5">
-        <v>0.99530514381330504</v>
+        <v>1.3495319932534499E-3</v>
       </c>
       <c r="Q5">
-        <v>1.3495319932534499E-3</v>
+        <v>0.43766213988851199</v>
       </c>
       <c r="R5">
-        <v>0.43766213988851199</v>
+        <v>4.61299737437951E-2</v>
       </c>
       <c r="S5">
-        <v>4.61299737437951E-2</v>
+        <v>7.5672240615670794E-2</v>
       </c>
       <c r="T5">
-        <v>7.5672240615670794E-2</v>
+        <v>2.1751885616742801E-2</v>
       </c>
       <c r="U5">
-        <v>2.1751885616742801E-2</v>
+        <v>0.88686911067315399</v>
       </c>
       <c r="V5">
-        <v>0.88686911067315399</v>
+        <v>1.2381827492029601E-2</v>
       </c>
       <c r="W5">
-        <v>1.2381827492029601E-2</v>
+        <v>0.97737249951349903</v>
       </c>
       <c r="X5">
-        <v>0.97737249951349903</v>
-      </c>
-      <c r="Y5">
         <v>4.3122774184186597E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1490,49 +1352,46 @@
         <v>64</v>
       </c>
       <c r="L6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" t="s">
-        <v>61</v>
+        <v>24</v>
+      </c>
+      <c r="M6">
+        <v>0.97284648992526901</v>
       </c>
       <c r="N6">
-        <v>0.97284648992526901</v>
+        <v>3.41724020907747E-3</v>
       </c>
       <c r="O6">
-        <v>3.41724020907747E-3</v>
+        <v>0.99535973945578604</v>
       </c>
       <c r="P6">
-        <v>0.99535973945578604</v>
+        <v>3.0381336194809901E-3</v>
       </c>
       <c r="Q6">
-        <v>3.0381336194809901E-3</v>
+        <v>0.43766296993554299</v>
       </c>
       <c r="R6">
-        <v>0.43766296993554299</v>
+        <v>5.5079404213203099E-2</v>
       </c>
       <c r="S6">
-        <v>5.5079404213203099E-2</v>
+        <v>7.4792262834851395E-2</v>
       </c>
       <c r="T6">
-        <v>7.4792262834851395E-2</v>
+        <v>4.8968927977140898E-2</v>
       </c>
       <c r="U6">
-        <v>4.8968927977140898E-2</v>
+        <v>0.91669970591858096</v>
       </c>
       <c r="V6">
-        <v>0.91669970591858096</v>
+        <v>1.22248448530846E-2</v>
       </c>
       <c r="W6">
-        <v>1.22248448530846E-2</v>
+        <v>0.993458924053926</v>
       </c>
       <c r="X6">
-        <v>0.993458924053926</v>
-      </c>
-      <c r="Y6">
         <v>2.0373799017204298E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>39</v>
       </c>
@@ -1567,49 +1426,46 @@
         <v>64</v>
       </c>
       <c r="L7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" t="s">
-        <v>60</v>
+        <v>24</v>
+      </c>
+      <c r="M7">
+        <v>0.97258450408149899</v>
       </c>
       <c r="N7">
-        <v>0.97258450408149899</v>
+        <v>2.8121344884062499E-3</v>
       </c>
       <c r="O7">
-        <v>2.8121344884062499E-3</v>
+        <v>0.99834041968690801</v>
       </c>
       <c r="P7">
-        <v>0.99834041968690801</v>
+        <v>5.6271943196269201E-4</v>
       </c>
       <c r="Q7">
-        <v>5.6271943196269201E-4</v>
+        <v>0.44188568279698798</v>
       </c>
       <c r="R7">
-        <v>0.44188568279698798</v>
+        <v>4.5326252387215597E-2</v>
       </c>
       <c r="S7">
-        <v>4.5326252387215597E-2</v>
+        <v>2.67493740613759E-2</v>
       </c>
       <c r="T7">
-        <v>2.67493740613759E-2</v>
+        <v>9.0699655730706596E-3</v>
       </c>
       <c r="U7">
-        <v>9.0699655730706596E-3</v>
+        <v>0.89847871887253306</v>
       </c>
       <c r="V7">
-        <v>0.89847871887253306</v>
+        <v>1.0852929212119699E-2</v>
       </c>
       <c r="W7">
-        <v>1.0852929212119699E-2</v>
+        <v>0.99532777998356203</v>
       </c>
       <c r="X7">
-        <v>0.99532777998356203</v>
-      </c>
-      <c r="Y7">
         <v>8.5439450842955005E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>16</v>
       </c>
@@ -1643,47 +1499,44 @@
       <c r="K8">
         <v>32</v>
       </c>
-      <c r="M8" t="s">
-        <v>59</v>
+      <c r="M8">
+        <v>0.97209315188024203</v>
       </c>
       <c r="N8">
-        <v>0.97209315188024203</v>
+        <v>3.1948727116417998E-3</v>
       </c>
       <c r="O8">
-        <v>3.1948727116417998E-3</v>
+        <v>0.99507586900811595</v>
       </c>
       <c r="P8">
-        <v>0.99507586900811595</v>
+        <v>1.00756342305586E-3</v>
       </c>
       <c r="Q8">
-        <v>1.00756342305586E-3</v>
+        <v>0.44980534452307003</v>
       </c>
       <c r="R8">
-        <v>0.44980534452307003</v>
+        <v>5.1495263639427101E-2</v>
       </c>
       <c r="S8">
-        <v>5.1495263639427101E-2</v>
+        <v>7.9367713832709394E-2</v>
       </c>
       <c r="T8">
-        <v>7.9367713832709394E-2</v>
+        <v>1.6240003526443302E-2</v>
       </c>
       <c r="U8">
-        <v>1.6240003526443302E-2</v>
+        <v>0.86103674606351699</v>
       </c>
       <c r="V8">
-        <v>0.86103674606351699</v>
+        <v>1.9472517826501098E-2</v>
       </c>
       <c r="W8">
-        <v>1.9472517826501098E-2</v>
+        <v>0.97089789411331096</v>
       </c>
       <c r="X8">
-        <v>0.97089789411331096</v>
-      </c>
-      <c r="Y8">
         <v>6.4185129497668202E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>28</v>
       </c>
@@ -1718,49 +1571,46 @@
         <v>64</v>
       </c>
       <c r="L9" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" t="s">
-        <v>58</v>
+        <v>24</v>
+      </c>
+      <c r="M9">
+        <v>0.97189649942143996</v>
       </c>
       <c r="N9">
-        <v>0.97189649942143996</v>
+        <v>1.83536604341176E-3</v>
       </c>
       <c r="O9">
-        <v>1.83536604341176E-3</v>
+        <v>0.99290317682028695</v>
       </c>
       <c r="P9">
-        <v>0.99290317682028695</v>
+        <v>1.3468733660155199E-3</v>
       </c>
       <c r="Q9">
-        <v>1.3468733660155199E-3</v>
+        <v>0.45297500764392701</v>
       </c>
       <c r="R9">
-        <v>0.45297500764392701</v>
+        <v>2.9582605258573199E-2</v>
       </c>
       <c r="S9">
-        <v>2.9582605258573199E-2</v>
+        <v>0.11438737411899599</v>
       </c>
       <c r="T9">
-        <v>0.11438737411899599</v>
+        <v>2.1709033608491898E-2</v>
       </c>
       <c r="U9">
-        <v>2.1709033608491898E-2</v>
+        <v>0.854826008242491</v>
       </c>
       <c r="V9">
-        <v>0.854826008242491</v>
+        <v>1.26415658675961E-2</v>
       </c>
       <c r="W9">
-        <v>1.26415658675961E-2</v>
+        <v>0.95808374504678595</v>
       </c>
       <c r="X9">
-        <v>0.95808374504678595</v>
-      </c>
-      <c r="Y9">
         <v>8.2172009780458796E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>25</v>
       </c>
@@ -1795,49 +1645,46 @@
         <v>8</v>
       </c>
       <c r="L10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" t="s">
-        <v>57</v>
+        <v>24</v>
+      </c>
+      <c r="M10">
+        <v>0.97081563615697097</v>
       </c>
       <c r="N10">
-        <v>0.97081563615697097</v>
+        <v>1.80365313437662E-3</v>
       </c>
       <c r="O10">
-        <v>1.80365313437662E-3</v>
+        <v>0.99383119640930095</v>
       </c>
       <c r="P10">
-        <v>0.99383119640930095</v>
+        <v>1.7346889834031899E-3</v>
       </c>
       <c r="Q10">
-        <v>1.7346889834031899E-3</v>
+        <v>0.47039646502075</v>
       </c>
       <c r="R10">
-        <v>0.47039646502075</v>
+        <v>2.9071453559828001E-2</v>
       </c>
       <c r="S10">
-        <v>2.9071453559828001E-2</v>
+        <v>9.9429465710843601E-2</v>
       </c>
       <c r="T10">
-        <v>9.9429465710843601E-2</v>
+        <v>2.79598827857378E-2</v>
       </c>
       <c r="U10">
-        <v>2.79598827857378E-2</v>
+        <v>0.87825885708566798</v>
       </c>
       <c r="V10">
-        <v>0.87825885708566798</v>
+        <v>2.1555549605358802E-2</v>
       </c>
       <c r="W10">
-        <v>2.1555549605358802E-2</v>
+        <v>0.97229960288749395</v>
       </c>
       <c r="X10">
-        <v>0.97229960288749395</v>
-      </c>
-      <c r="Y10">
         <v>1.11289446479572E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1872,49 +1719,46 @@
         <v>64</v>
       </c>
       <c r="L11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M11" t="s">
-        <v>56</v>
+        <v>24</v>
+      </c>
+      <c r="M11">
+        <v>0.96980013631778095</v>
       </c>
       <c r="N11">
-        <v>0.96980013631778095</v>
+        <v>2.3122925015418099E-3</v>
       </c>
       <c r="O11">
-        <v>2.3122925015418099E-3</v>
+        <v>0.994377101813266</v>
       </c>
       <c r="P11">
-        <v>0.994377101813266</v>
+        <v>1.8093066960401E-3</v>
       </c>
       <c r="Q11">
-        <v>1.8093066960401E-3</v>
+        <v>0.48676438846339898</v>
       </c>
       <c r="R11">
-        <v>0.48676438846339898</v>
+        <v>3.7269751482332497E-2</v>
       </c>
       <c r="S11">
-        <v>3.7269751482332497E-2</v>
+        <v>9.0630510249024798E-2</v>
       </c>
       <c r="T11">
-        <v>9.0630510249024798E-2</v>
+        <v>2.9162578208321702E-2</v>
       </c>
       <c r="U11">
-        <v>2.9162578208321702E-2</v>
+        <v>0.90228561053971301</v>
       </c>
       <c r="V11">
-        <v>0.90228561053971301</v>
+        <v>1.23365897514555E-2</v>
       </c>
       <c r="W11">
-        <v>1.23365897514555E-2</v>
+        <v>0.98811827408960295</v>
       </c>
       <c r="X11">
-        <v>0.98811827408960295</v>
-      </c>
-      <c r="Y11">
         <v>6.5753821711384899E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1949,49 +1793,46 @@
         <v>32</v>
       </c>
       <c r="L12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M12" t="s">
-        <v>55</v>
+        <v>24</v>
+      </c>
+      <c r="M12">
+        <v>0.96953839508797302</v>
       </c>
       <c r="N12">
-        <v>0.96953839508797302</v>
+        <v>8.3271661348295906E-3</v>
       </c>
       <c r="O12">
-        <v>8.3271661348295906E-3</v>
+        <v>0.99168023290285401</v>
       </c>
       <c r="P12">
-        <v>0.99168023290285401</v>
+        <v>8.7339991624185501E-3</v>
       </c>
       <c r="Q12">
-        <v>8.7339991624185501E-3</v>
+        <v>0.49098315861250802</v>
       </c>
       <c r="R12">
-        <v>0.49098315861250802</v>
+        <v>0.134218059428338</v>
       </c>
       <c r="S12">
-        <v>0.134218059428338</v>
+        <v>0.134098901034444</v>
       </c>
       <c r="T12">
-        <v>0.134098901034444</v>
+        <v>0.140775433041718</v>
       </c>
       <c r="U12">
-        <v>0.140775433041718</v>
+        <v>0.87086528196916502</v>
       </c>
       <c r="V12">
-        <v>0.87086528196916502</v>
+        <v>7.53284996532812E-2</v>
       </c>
       <c r="W12">
-        <v>7.53284996532812E-2</v>
+        <v>0.95994753994826298</v>
       </c>
       <c r="X12">
-        <v>0.95994753994826298</v>
-      </c>
-      <c r="Y12">
         <v>5.7518054015956097E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>26</v>
       </c>
@@ -2026,49 +1867,46 @@
         <v>32</v>
       </c>
       <c r="L13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M13" t="s">
-        <v>54</v>
+        <v>23</v>
+      </c>
+      <c r="M13">
+        <v>0.964854213684044</v>
       </c>
       <c r="N13">
-        <v>0.964854213684044</v>
+        <v>4.2290902839155599E-3</v>
       </c>
       <c r="O13">
-        <v>4.2290902839155599E-3</v>
+        <v>0.984528858425881</v>
       </c>
       <c r="P13">
-        <v>0.984528858425881</v>
+        <v>2.37364414784276E-3</v>
       </c>
       <c r="Q13">
-        <v>2.37364414784276E-3</v>
+        <v>0.566483242060977</v>
       </c>
       <c r="R13">
-        <v>0.566483242060977</v>
+        <v>6.8164881291227594E-2</v>
       </c>
       <c r="S13">
-        <v>6.8164881291227594E-2</v>
+        <v>0.249365438176536</v>
       </c>
       <c r="T13">
-        <v>0.249365438176536</v>
+        <v>3.8258623179351303E-2</v>
       </c>
       <c r="U13">
-        <v>3.8258623179351303E-2</v>
+        <v>0.86464443991090301</v>
       </c>
       <c r="V13">
-        <v>0.86464443991090301</v>
+        <v>2.1514873444094099E-2</v>
       </c>
       <c r="W13">
-        <v>2.1514873444094099E-2</v>
+        <v>0.934319045789474</v>
       </c>
       <c r="X13">
-        <v>0.934319045789474</v>
-      </c>
-      <c r="Y13">
         <v>2.0277645599026201E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>20</v>
       </c>
@@ -2103,49 +1941,46 @@
         <v>64</v>
       </c>
       <c r="L14" t="s">
-        <v>24</v>
-      </c>
-      <c r="M14" t="s">
-        <v>53</v>
+        <v>23</v>
+      </c>
+      <c r="M14">
+        <v>0.96197170851573799</v>
       </c>
       <c r="N14">
-        <v>0.96197170851573799</v>
+        <v>8.1717851331166696E-3</v>
       </c>
       <c r="O14">
-        <v>8.1717851331166696E-3</v>
+        <v>0.98876522985112103</v>
       </c>
       <c r="P14">
-        <v>0.98876522985112103</v>
+        <v>7.8724961512648302E-3</v>
       </c>
       <c r="Q14">
-        <v>7.8724961512648302E-3</v>
+        <v>0.61294373579315298</v>
       </c>
       <c r="R14">
-        <v>0.61294373579315298</v>
+        <v>0.13171361360204101</v>
       </c>
       <c r="S14">
-        <v>0.13171361360204101</v>
+        <v>0.18108319875634499</v>
       </c>
       <c r="T14">
-        <v>0.18108319875634499</v>
+        <v>0.12688964519491999</v>
       </c>
       <c r="U14">
-        <v>0.12688964519491999</v>
+        <v>0.88506414105643405</v>
       </c>
       <c r="V14">
-        <v>0.88506414105643405</v>
+        <v>5.74859311713251E-3</v>
       </c>
       <c r="W14">
-        <v>5.74859311713251E-3</v>
+        <v>0.97383510813848895</v>
       </c>
       <c r="X14">
-        <v>0.97383510813848895</v>
-      </c>
-      <c r="Y14">
         <v>6.6570627784258299E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>31</v>
       </c>
@@ -2180,49 +2015,46 @@
         <v>64</v>
       </c>
       <c r="L15" t="s">
-        <v>24</v>
-      </c>
-      <c r="M15" t="s">
-        <v>52</v>
+        <v>23</v>
+      </c>
+      <c r="M15">
+        <v>0.94071426607160002</v>
       </c>
       <c r="N15">
-        <v>0.94071426607160002</v>
+        <v>5.2106203263779004E-3</v>
       </c>
       <c r="O15">
-        <v>5.2106203263779004E-3</v>
+        <v>0.94351999604970804</v>
       </c>
       <c r="P15">
-        <v>0.94351999604970804</v>
+        <v>4.5879099717801297E-3</v>
       </c>
       <c r="Q15">
-        <v>4.5879099717801297E-3</v>
+        <v>0.95557322426977398</v>
       </c>
       <c r="R15">
-        <v>0.95557322426977398</v>
+        <v>8.3985276299084297E-2</v>
       </c>
       <c r="S15">
-        <v>8.3985276299084297E-2</v>
+        <v>0.91035020039175196</v>
       </c>
       <c r="T15">
-        <v>0.91035020039175196</v>
+        <v>7.3948371303018207E-2</v>
       </c>
       <c r="U15">
-        <v>7.3948371303018207E-2</v>
+        <v>0.67401998521894402</v>
       </c>
       <c r="V15">
-        <v>0.67401998521894402</v>
+        <v>4.7600097500676397E-2</v>
       </c>
       <c r="W15">
-        <v>4.7600097500676397E-2</v>
+        <v>0.68315071456727805</v>
       </c>
       <c r="X15">
-        <v>0.68315071456727805</v>
-      </c>
-      <c r="Y15">
         <v>4.36784316932066E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>8</v>
       </c>
@@ -2257,49 +2089,46 @@
         <v>32</v>
       </c>
       <c r="L16" t="s">
-        <v>24</v>
-      </c>
-      <c r="M16" t="s">
-        <v>51</v>
+        <v>23</v>
+      </c>
+      <c r="M16">
+        <v>0.94051778956319199</v>
       </c>
       <c r="N16">
-        <v>0.94051778956319199</v>
+        <v>4.2437997184748798E-3</v>
       </c>
       <c r="O16">
-        <v>4.2437997184748798E-3</v>
+        <v>0.94528874809771801</v>
       </c>
       <c r="P16">
-        <v>0.94528874809771801</v>
+        <v>3.0973864632552902E-3</v>
       </c>
       <c r="Q16">
-        <v>3.0973864632552902E-3</v>
+        <v>0.95874005140810703</v>
       </c>
       <c r="R16">
-        <v>0.95874005140810703</v>
+        <v>6.8401969361536294E-2</v>
       </c>
       <c r="S16">
-        <v>6.8401969361536294E-2</v>
+        <v>0.88184128587817301</v>
       </c>
       <c r="T16">
-        <v>0.88184128587817301</v>
+        <v>4.9923970971587101E-2</v>
       </c>
       <c r="U16">
-        <v>4.9923970971587101E-2</v>
+        <v>0.69944673687668002</v>
       </c>
       <c r="V16">
-        <v>0.69944673687668002</v>
+        <v>4.0581289874664098E-2</v>
       </c>
       <c r="W16">
-        <v>4.0581289874664098E-2</v>
+        <v>0.71952945625311404</v>
       </c>
       <c r="X16">
-        <v>0.71952945625311404</v>
-      </c>
-      <c r="Y16">
         <v>4.2028368413381298E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>7</v>
       </c>
@@ -2334,49 +2163,46 @@
         <v>32</v>
       </c>
       <c r="L17" t="s">
-        <v>24</v>
-      </c>
-      <c r="M17" t="s">
-        <v>50</v>
+        <v>23</v>
+      </c>
+      <c r="M17">
+        <v>0.93914202485703502</v>
       </c>
       <c r="N17">
-        <v>0.93914202485703502</v>
+        <v>3.5660771164313801E-3</v>
       </c>
       <c r="O17">
-        <v>3.5660771164313801E-3</v>
+        <v>0.94253736126817</v>
       </c>
       <c r="P17">
-        <v>0.94253736126817</v>
+        <v>2.17060273344118E-3</v>
       </c>
       <c r="Q17">
-        <v>2.17060273344118E-3</v>
+        <v>0.98091475839651299</v>
       </c>
       <c r="R17">
-        <v>0.98091475839651299</v>
+        <v>5.7478371703952799E-2</v>
       </c>
       <c r="S17">
-        <v>5.7478371703952799E-2</v>
+        <v>0.92618840169350503</v>
       </c>
       <c r="T17">
-        <v>0.92618840169350503</v>
+        <v>3.4985982260088803E-2</v>
       </c>
       <c r="U17">
-        <v>3.4985982260088803E-2</v>
+        <v>0.67862655509022596</v>
       </c>
       <c r="V17">
-        <v>0.67862655509022596</v>
+        <v>3.4264652480706703E-2</v>
       </c>
       <c r="W17">
-        <v>3.4264652480706703E-2</v>
+        <v>0.69129394451544901</v>
       </c>
       <c r="X17">
-        <v>0.69129394451544901</v>
-      </c>
-      <c r="Y17">
         <v>2.6240778761756098E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>23</v>
       </c>
@@ -2411,49 +2237,46 @@
         <v>32</v>
       </c>
       <c r="L18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M18" t="s">
-        <v>49</v>
+        <v>23</v>
+      </c>
+      <c r="M18">
+        <v>0.93419588335817505</v>
       </c>
       <c r="N18">
-        <v>0.93419588335817505</v>
+        <v>2.7154811568427398E-3</v>
       </c>
       <c r="O18">
-        <v>2.7154811568427398E-3</v>
+        <v>0.937405866301665</v>
       </c>
       <c r="P18">
-        <v>0.937405866301665</v>
+        <v>4.8788026009583298E-3</v>
       </c>
       <c r="Q18">
-        <v>4.8788026009583298E-3</v>
+        <v>1.0606371396834</v>
       </c>
       <c r="R18">
-        <v>1.0606371396834</v>
+        <v>4.3768384750347701E-2</v>
       </c>
       <c r="S18">
-        <v>4.3768384750347701E-2</v>
+        <v>1.00889832788286</v>
       </c>
       <c r="T18">
-        <v>1.00889832788286</v>
+        <v>7.8637006493876296E-2</v>
       </c>
       <c r="U18">
-        <v>7.8637006493876296E-2</v>
+        <v>0.64497415239884204</v>
       </c>
       <c r="V18">
-        <v>0.64497415239884204</v>
+        <v>4.8406795180674998E-2</v>
       </c>
       <c r="W18">
-        <v>4.8406795180674998E-2</v>
+        <v>0.65959374913124902</v>
       </c>
       <c r="X18">
-        <v>0.65959374913124902</v>
-      </c>
-      <c r="Y18">
         <v>6.1053156221018097E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>5</v>
       </c>
@@ -2488,49 +2311,46 @@
         <v>32</v>
       </c>
       <c r="L19" t="s">
-        <v>24</v>
-      </c>
-      <c r="M19" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="M19">
+        <v>0.93370525212438205</v>
       </c>
       <c r="N19">
-        <v>0.93370525212438205</v>
+        <v>1.09540221051576E-2</v>
       </c>
       <c r="O19">
-        <v>1.09540221051576E-2</v>
+        <v>0.93879228243852197</v>
       </c>
       <c r="P19">
-        <v>0.93879228243852197</v>
+        <v>7.9980732512217999E-3</v>
       </c>
       <c r="Q19">
-        <v>7.9980732512217999E-3</v>
+        <v>1.06854518079187</v>
       </c>
       <c r="R19">
-        <v>1.06854518079187</v>
+        <v>0.17655797495810499</v>
       </c>
       <c r="S19">
-        <v>0.17655797495810499</v>
+        <v>0.98655194011671699</v>
       </c>
       <c r="T19">
-        <v>0.98655194011671699</v>
+        <v>0.128913708886224</v>
       </c>
       <c r="U19">
-        <v>0.128913708886224</v>
+        <v>0.66402336612879997</v>
       </c>
       <c r="V19">
-        <v>0.66402336612879997</v>
+        <v>6.8462512264900605E-2</v>
       </c>
       <c r="W19">
-        <v>6.8462512264900605E-2</v>
+        <v>0.68094351821292898</v>
       </c>
       <c r="X19">
-        <v>0.68094351821292898</v>
-      </c>
-      <c r="Y19">
         <v>5.5208933940644397E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>34</v>
       </c>
@@ -2565,49 +2385,46 @@
         <v>32</v>
       </c>
       <c r="L20" t="s">
-        <v>28</v>
-      </c>
-      <c r="M20" t="s">
-        <v>47</v>
+        <v>24</v>
+      </c>
+      <c r="M20">
+        <v>0.90334092632234297</v>
       </c>
       <c r="N20">
-        <v>0.90334092632234297</v>
+        <v>6.6927000708528903E-2</v>
       </c>
       <c r="O20">
-        <v>6.6927000708528903E-2</v>
+        <v>0.91623542640092703</v>
       </c>
       <c r="P20">
-        <v>0.91623542640092703</v>
+        <v>7.9834828772073402E-2</v>
       </c>
       <c r="Q20">
-        <v>7.9834828772073402E-2</v>
+        <v>1.55796028540652</v>
       </c>
       <c r="R20">
-        <v>1.55796028540652</v>
+        <v>1.0787357923562</v>
       </c>
       <c r="S20">
-        <v>1.0787357923562</v>
+        <v>1.3501255010555999</v>
       </c>
       <c r="T20">
-        <v>1.3501255010555999</v>
+        <v>1.28678539844222</v>
       </c>
       <c r="U20">
-        <v>1.28678539844222</v>
+        <v>0.443132230143088</v>
       </c>
       <c r="V20">
-        <v>0.443132230143088</v>
+        <v>0.44313536521559799</v>
       </c>
       <c r="W20">
-        <v>0.44313536521559799</v>
+        <v>0.49332580475693799</v>
       </c>
       <c r="X20">
-        <v>0.49332580475693799</v>
-      </c>
-      <c r="Y20">
         <v>0.49335212487183799</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>32</v>
       </c>
@@ -2642,49 +2459,46 @@
         <v>16</v>
       </c>
       <c r="L21" t="s">
-        <v>24</v>
-      </c>
-      <c r="M21" t="s">
-        <v>46</v>
+        <v>23</v>
+      </c>
+      <c r="M21">
+        <v>0.88303312248124799</v>
       </c>
       <c r="N21">
-        <v>0.88303312248124799</v>
+        <v>4.6617343751865999E-2</v>
       </c>
       <c r="O21">
-        <v>4.6617343751865999E-2</v>
+        <v>0.88484553642159103</v>
       </c>
       <c r="P21">
-        <v>0.88484553642159103</v>
+        <v>4.8458935419629902E-2</v>
       </c>
       <c r="Q21">
-        <v>4.8458935419629902E-2</v>
+        <v>1.8852834081473699</v>
       </c>
       <c r="R21">
-        <v>1.8852834081473699</v>
+        <v>0.75138280092155996</v>
       </c>
       <c r="S21">
-        <v>0.75138280092155996</v>
+        <v>1.8560707470786899</v>
       </c>
       <c r="T21">
-        <v>1.8560707470786899</v>
+        <v>0.78106575138873502</v>
       </c>
       <c r="U21">
-        <v>0.78106575138873502</v>
+        <v>0.31858194889244701</v>
       </c>
       <c r="V21">
-        <v>0.31858194889244701</v>
+        <v>0.31858434451240703</v>
       </c>
       <c r="W21">
-        <v>0.31858434451240703</v>
+        <v>0.32579251424037797</v>
       </c>
       <c r="X21">
-        <v>0.32579251424037797</v>
-      </c>
-      <c r="Y21">
         <v>0.32621415493328298</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>4</v>
       </c>
@@ -2719,49 +2533,46 @@
         <v>16</v>
       </c>
       <c r="L22" t="s">
-        <v>24</v>
-      </c>
-      <c r="M22" t="s">
-        <v>45</v>
+        <v>23</v>
+      </c>
+      <c r="M22">
+        <v>0.83750416873687294</v>
       </c>
       <c r="N22">
-        <v>0.83750416873687294</v>
+        <v>1.90446396967393E-3</v>
       </c>
       <c r="O22">
-        <v>1.90446396967393E-3</v>
+        <v>0.83764600492303198</v>
       </c>
       <c r="P22">
-        <v>0.83764600492303198</v>
+        <v>2.10748410111097E-3</v>
       </c>
       <c r="Q22">
-        <v>2.10748410111097E-3</v>
+        <v>2.6191234349316499</v>
       </c>
       <c r="R22">
-        <v>2.6191234349316499</v>
+        <v>3.0696332236263401E-2</v>
       </c>
       <c r="S22">
-        <v>3.0696332236263401E-2</v>
+        <v>2.6168373057305301</v>
       </c>
       <c r="T22">
-        <v>2.6168373057305301</v>
+        <v>3.39686301135535E-2</v>
       </c>
       <c r="U22">
-        <v>3.39686301135535E-2</v>
+        <v>8.6137820512820502E-3</v>
       </c>
       <c r="V22">
-        <v>8.6137820512820502E-3</v>
+        <v>1.49195081581453E-2</v>
       </c>
       <c r="W22">
-        <v>1.49195081581453E-2</v>
+        <v>9.3432995194874507E-3</v>
       </c>
       <c r="X22">
-        <v>9.3432995194874507E-3</v>
-      </c>
-      <c r="Y22">
         <v>1.61830694780861E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>37</v>
       </c>
@@ -2796,34 +2607,34 @@
         <v>64</v>
       </c>
       <c r="L23" t="s">
-        <v>24</v>
-      </c>
-      <c r="M23" t="s">
-        <v>30</v>
-      </c>
-      <c r="N23">
+        <v>23</v>
+      </c>
+      <c r="M23">
         <v>0.83642319389410502</v>
       </c>
-      <c r="O23" s="1">
+      <c r="N23" s="1">
         <v>5.4793527277718898E-5</v>
       </c>
-      <c r="P23">
+      <c r="O23">
         <v>0.83642319070344995</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="P23" s="1">
         <v>1.8264509022924902E-5</v>
       </c>
+      <c r="Q23">
+        <v>2.6365466907353801</v>
+      </c>
       <c r="R23">
-        <v>2.6365466907353801</v>
+        <v>8.8316730823589896E-4</v>
       </c>
       <c r="S23">
-        <v>8.8316730823589896E-4</v>
+        <v>2.63654674216267</v>
       </c>
       <c r="T23">
-        <v>2.63654674216267</v>
+        <v>2.9438910162216098E-4</v>
       </c>
       <c r="U23">
-        <v>2.9438910162216098E-4</v>
+        <v>0</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -2834,11 +2645,8 @@
       <c r="X23">
         <v>0</v>
       </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>36</v>
       </c>
@@ -2873,34 +2681,34 @@
         <v>64</v>
       </c>
       <c r="L24" t="s">
-        <v>24</v>
-      </c>
-      <c r="M24" t="s">
-        <v>31</v>
-      </c>
-      <c r="N24">
+        <v>23</v>
+      </c>
+      <c r="M24">
         <v>0.83642319389410502</v>
       </c>
-      <c r="O24" s="1">
+      <c r="N24" s="1">
         <v>5.4793527277718898E-5</v>
       </c>
-      <c r="P24">
+      <c r="O24">
         <v>0.83642319070344995</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="P24" s="1">
         <v>1.8264509022924902E-5</v>
       </c>
+      <c r="Q24">
+        <v>2.6365466907353801</v>
+      </c>
       <c r="R24">
-        <v>2.6365466907353801</v>
+        <v>8.8316730823589896E-4</v>
       </c>
       <c r="S24">
-        <v>8.8316730823589896E-4</v>
+        <v>2.63654674216267</v>
       </c>
       <c r="T24">
-        <v>2.63654674216267</v>
+        <v>2.9438910162216098E-4</v>
       </c>
       <c r="U24">
-        <v>2.9438910162216098E-4</v>
+        <v>0</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -2911,11 +2719,8 @@
       <c r="X24">
         <v>0</v>
       </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>35</v>
       </c>
@@ -2950,34 +2755,34 @@
         <v>8</v>
       </c>
       <c r="L25" t="s">
-        <v>28</v>
-      </c>
-      <c r="M25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N25">
+        <v>24</v>
+      </c>
+      <c r="M25">
         <v>0.83642319389410502</v>
       </c>
-      <c r="O25" s="1">
+      <c r="N25" s="1">
         <v>5.4793527277718898E-5</v>
       </c>
-      <c r="P25">
+      <c r="O25">
         <v>0.83642319070344995</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="P25" s="1">
         <v>1.8264509022924902E-5</v>
       </c>
+      <c r="Q25">
+        <v>2.6365466907353801</v>
+      </c>
       <c r="R25">
-        <v>2.6365466907353801</v>
+        <v>8.8316730823589896E-4</v>
       </c>
       <c r="S25">
-        <v>8.8316730823589896E-4</v>
+        <v>2.63654674216267</v>
       </c>
       <c r="T25">
-        <v>2.63654674216267</v>
+        <v>2.9438910162216098E-4</v>
       </c>
       <c r="U25">
-        <v>2.9438910162216098E-4</v>
+        <v>0</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -2988,11 +2793,8 @@
       <c r="X25">
         <v>0</v>
       </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>30</v>
       </c>
@@ -3027,34 +2829,34 @@
         <v>8</v>
       </c>
       <c r="L26" t="s">
-        <v>24</v>
-      </c>
-      <c r="M26" t="s">
-        <v>33</v>
-      </c>
-      <c r="N26">
+        <v>23</v>
+      </c>
+      <c r="M26">
         <v>0.83642319389410502</v>
       </c>
-      <c r="O26" s="1">
+      <c r="N26" s="1">
         <v>5.4793527277718898E-5</v>
       </c>
-      <c r="P26">
+      <c r="O26">
         <v>0.83642319070344995</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="P26" s="1">
         <v>1.8264509022924902E-5</v>
       </c>
+      <c r="Q26">
+        <v>2.6365466907353801</v>
+      </c>
       <c r="R26">
-        <v>2.6365466907353801</v>
+        <v>8.8316730823589896E-4</v>
       </c>
       <c r="S26">
-        <v>8.8316730823589896E-4</v>
+        <v>2.63654674216267</v>
       </c>
       <c r="T26">
-        <v>2.63654674216267</v>
+        <v>2.9438910162216098E-4</v>
       </c>
       <c r="U26">
-        <v>2.9438910162216098E-4</v>
+        <v>0</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -3065,11 +2867,8 @@
       <c r="X26">
         <v>0</v>
       </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>27</v>
       </c>
@@ -3104,34 +2903,34 @@
         <v>64</v>
       </c>
       <c r="L27" t="s">
-        <v>28</v>
-      </c>
-      <c r="M27" t="s">
-        <v>34</v>
-      </c>
-      <c r="N27">
+        <v>24</v>
+      </c>
+      <c r="M27">
         <v>0.83642319389410502</v>
       </c>
-      <c r="O27" s="1">
+      <c r="N27" s="1">
         <v>5.4793527277718898E-5</v>
       </c>
-      <c r="P27">
+      <c r="O27">
         <v>0.83642319070344995</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="P27" s="1">
         <v>1.8264509022924902E-5</v>
       </c>
+      <c r="Q27">
+        <v>2.6365466907353801</v>
+      </c>
       <c r="R27">
-        <v>2.6365466907353801</v>
+        <v>8.8316730823589896E-4</v>
       </c>
       <c r="S27">
-        <v>8.8316730823589896E-4</v>
+        <v>2.63654674216267</v>
       </c>
       <c r="T27">
-        <v>2.63654674216267</v>
+        <v>2.9438910162216098E-4</v>
       </c>
       <c r="U27">
-        <v>2.9438910162216098E-4</v>
+        <v>0</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -3142,11 +2941,8 @@
       <c r="X27">
         <v>0</v>
       </c>
-      <c r="Y27">
-        <v>0</v>
-      </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>24</v>
       </c>
@@ -3181,34 +2977,34 @@
         <v>8</v>
       </c>
       <c r="L28" t="s">
-        <v>28</v>
-      </c>
-      <c r="M28" t="s">
-        <v>35</v>
-      </c>
-      <c r="N28">
+        <v>24</v>
+      </c>
+      <c r="M28">
         <v>0.83642319389410502</v>
       </c>
-      <c r="O28" s="1">
+      <c r="N28" s="1">
         <v>5.4793527277718898E-5</v>
       </c>
-      <c r="P28">
+      <c r="O28">
         <v>0.83642319070344995</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="P28" s="1">
         <v>1.8264509022924902E-5</v>
       </c>
+      <c r="Q28">
+        <v>2.6365466907353801</v>
+      </c>
       <c r="R28">
-        <v>2.6365466907353801</v>
+        <v>8.8316730823589896E-4</v>
       </c>
       <c r="S28">
-        <v>8.8316730823589896E-4</v>
+        <v>2.63654674216267</v>
       </c>
       <c r="T28">
-        <v>2.63654674216267</v>
+        <v>2.9438910162216098E-4</v>
       </c>
       <c r="U28">
-        <v>2.9438910162216098E-4</v>
+        <v>0</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -3219,11 +3015,8 @@
       <c r="X28">
         <v>0</v>
       </c>
-      <c r="Y28">
-        <v>0</v>
-      </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>21</v>
       </c>
@@ -3258,34 +3051,34 @@
         <v>64</v>
       </c>
       <c r="L29" t="s">
-        <v>28</v>
-      </c>
-      <c r="M29" t="s">
-        <v>36</v>
-      </c>
-      <c r="N29">
+        <v>24</v>
+      </c>
+      <c r="M29">
         <v>0.83642319389410502</v>
       </c>
-      <c r="O29" s="1">
+      <c r="N29" s="1">
         <v>5.4793527277718898E-5</v>
       </c>
-      <c r="P29">
+      <c r="O29">
         <v>0.83642319070344995</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="P29" s="1">
         <v>1.8264509022924902E-5</v>
       </c>
+      <c r="Q29">
+        <v>2.6365466907353801</v>
+      </c>
       <c r="R29">
-        <v>2.6365466907353801</v>
+        <v>8.8316730823589896E-4</v>
       </c>
       <c r="S29">
-        <v>8.8316730823589896E-4</v>
+        <v>2.63654674216267</v>
       </c>
       <c r="T29">
-        <v>2.63654674216267</v>
+        <v>2.9438910162216098E-4</v>
       </c>
       <c r="U29">
-        <v>2.9438910162216098E-4</v>
+        <v>0</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -3296,11 +3089,8 @@
       <c r="X29">
         <v>0</v>
       </c>
-      <c r="Y29">
-        <v>0</v>
-      </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>18</v>
       </c>
@@ -3335,34 +3125,34 @@
         <v>64</v>
       </c>
       <c r="L30" t="s">
-        <v>28</v>
-      </c>
-      <c r="M30" t="s">
-        <v>37</v>
-      </c>
-      <c r="N30">
+        <v>24</v>
+      </c>
+      <c r="M30">
         <v>0.83642319389410502</v>
       </c>
-      <c r="O30" s="1">
+      <c r="N30" s="1">
         <v>5.4793527277718898E-5</v>
       </c>
-      <c r="P30">
+      <c r="O30">
         <v>0.83642319070344995</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="P30" s="1">
         <v>1.8264509022924902E-5</v>
       </c>
+      <c r="Q30">
+        <v>2.6365466907353801</v>
+      </c>
       <c r="R30">
-        <v>2.6365466907353801</v>
+        <v>8.8316730823589896E-4</v>
       </c>
       <c r="S30">
-        <v>8.8316730823589896E-4</v>
+        <v>2.63654674216267</v>
       </c>
       <c r="T30">
-        <v>2.63654674216267</v>
+        <v>2.9438910162216098E-4</v>
       </c>
       <c r="U30">
-        <v>2.9438910162216098E-4</v>
+        <v>0</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -3373,11 +3163,8 @@
       <c r="X30">
         <v>0</v>
       </c>
-      <c r="Y30">
-        <v>0</v>
-      </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>17</v>
       </c>
@@ -3412,34 +3199,34 @@
         <v>32</v>
       </c>
       <c r="L31" t="s">
-        <v>24</v>
-      </c>
-      <c r="M31" t="s">
-        <v>38</v>
-      </c>
-      <c r="N31">
+        <v>23</v>
+      </c>
+      <c r="M31">
         <v>0.83642319389410502</v>
       </c>
-      <c r="O31" s="1">
+      <c r="N31" s="1">
         <v>5.4793527277718898E-5</v>
       </c>
-      <c r="P31">
+      <c r="O31">
         <v>0.83642319070344995</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="P31" s="1">
         <v>1.8264509022924902E-5</v>
       </c>
+      <c r="Q31">
+        <v>2.6365466907353801</v>
+      </c>
       <c r="R31">
-        <v>2.6365466907353801</v>
+        <v>8.8316730823589896E-4</v>
       </c>
       <c r="S31">
-        <v>8.8316730823589896E-4</v>
+        <v>2.63654674216267</v>
       </c>
       <c r="T31">
-        <v>2.63654674216267</v>
+        <v>2.9438910162216098E-4</v>
       </c>
       <c r="U31">
-        <v>2.9438910162216098E-4</v>
+        <v>0</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -3450,11 +3237,8 @@
       <c r="X31">
         <v>0</v>
       </c>
-      <c r="Y31">
-        <v>0</v>
-      </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>15</v>
       </c>
@@ -3488,32 +3272,32 @@
       <c r="K32">
         <v>64</v>
       </c>
-      <c r="M32" t="s">
-        <v>39</v>
-      </c>
-      <c r="N32">
+      <c r="M32">
         <v>0.83642319389410502</v>
       </c>
-      <c r="O32" s="1">
+      <c r="N32" s="1">
         <v>5.4793527277718898E-5</v>
       </c>
-      <c r="P32">
+      <c r="O32">
         <v>0.83642319070344995</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="P32" s="1">
         <v>1.8264509022924902E-5</v>
       </c>
+      <c r="Q32">
+        <v>2.6365466907353801</v>
+      </c>
       <c r="R32">
-        <v>2.6365466907353801</v>
+        <v>8.8316730823589896E-4</v>
       </c>
       <c r="S32">
-        <v>8.8316730823589896E-4</v>
+        <v>2.63654674216267</v>
       </c>
       <c r="T32">
-        <v>2.63654674216267</v>
+        <v>2.9438910162216098E-4</v>
       </c>
       <c r="U32">
-        <v>2.9438910162216098E-4</v>
+        <v>0</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -3524,11 +3308,8 @@
       <c r="X32">
         <v>0</v>
       </c>
-      <c r="Y32">
-        <v>0</v>
-      </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0</v>
       </c>
@@ -3563,34 +3344,34 @@
         <v>32</v>
       </c>
       <c r="L33" t="s">
-        <v>28</v>
-      </c>
-      <c r="M33" t="s">
-        <v>40</v>
-      </c>
-      <c r="N33">
+        <v>24</v>
+      </c>
+      <c r="M33">
         <v>0.83642319389410502</v>
       </c>
-      <c r="O33" s="1">
+      <c r="N33" s="1">
         <v>5.4793527277718898E-5</v>
       </c>
-      <c r="P33">
+      <c r="O33">
         <v>0.83642319070344995</v>
       </c>
-      <c r="Q33" s="1">
+      <c r="P33" s="1">
         <v>1.8264509022924902E-5</v>
       </c>
+      <c r="Q33">
+        <v>2.6365466907353801</v>
+      </c>
       <c r="R33">
-        <v>2.6365466907353801</v>
+        <v>8.8316730823589896E-4</v>
       </c>
       <c r="S33">
-        <v>8.8316730823589896E-4</v>
+        <v>2.63654674216267</v>
       </c>
       <c r="T33">
-        <v>2.63654674216267</v>
+        <v>2.9438910162216098E-4</v>
       </c>
       <c r="U33">
-        <v>2.9438910162216098E-4</v>
+        <v>0</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -3601,11 +3382,8 @@
       <c r="X33">
         <v>0</v>
       </c>
-      <c r="Y33">
-        <v>0</v>
-      </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>11</v>
       </c>
@@ -3640,34 +3418,34 @@
         <v>16</v>
       </c>
       <c r="L34" t="s">
-        <v>28</v>
-      </c>
-      <c r="M34" t="s">
-        <v>41</v>
-      </c>
-      <c r="N34">
+        <v>24</v>
+      </c>
+      <c r="M34">
         <v>0.83642319389410502</v>
       </c>
-      <c r="O34" s="1">
+      <c r="N34" s="1">
         <v>5.4793527277718898E-5</v>
       </c>
-      <c r="P34">
+      <c r="O34">
         <v>0.83642319070344995</v>
       </c>
-      <c r="Q34" s="1">
+      <c r="P34" s="1">
         <v>1.8264509022924902E-5</v>
       </c>
+      <c r="Q34">
+        <v>2.6365466907353801</v>
+      </c>
       <c r="R34">
-        <v>2.6365466907353801</v>
+        <v>8.8316730823589896E-4</v>
       </c>
       <c r="S34">
-        <v>8.8316730823589896E-4</v>
+        <v>2.63654674216267</v>
       </c>
       <c r="T34">
-        <v>2.63654674216267</v>
+        <v>2.9438910162216098E-4</v>
       </c>
       <c r="U34">
-        <v>2.9438910162216098E-4</v>
+        <v>0</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -3678,11 +3456,8 @@
       <c r="X34">
         <v>0</v>
       </c>
-      <c r="Y34">
-        <v>0</v>
-      </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>6</v>
       </c>
@@ -3717,34 +3492,34 @@
         <v>8</v>
       </c>
       <c r="L35" t="s">
-        <v>24</v>
-      </c>
-      <c r="M35" t="s">
-        <v>42</v>
-      </c>
-      <c r="N35">
+        <v>23</v>
+      </c>
+      <c r="M35">
         <v>0.83642319389410502</v>
       </c>
-      <c r="O35" s="1">
+      <c r="N35" s="1">
         <v>5.4793527277718898E-5</v>
       </c>
-      <c r="P35">
+      <c r="O35">
         <v>0.83642319070344995</v>
       </c>
-      <c r="Q35" s="1">
+      <c r="P35" s="1">
         <v>1.8264509022924902E-5</v>
       </c>
+      <c r="Q35">
+        <v>2.6365466907353801</v>
+      </c>
       <c r="R35">
-        <v>2.6365466907353801</v>
+        <v>8.8316730823589896E-4</v>
       </c>
       <c r="S35">
-        <v>8.8316730823589896E-4</v>
+        <v>2.63654674216267</v>
       </c>
       <c r="T35">
-        <v>2.63654674216267</v>
+        <v>2.9438910162216098E-4</v>
       </c>
       <c r="U35">
-        <v>2.9438910162216098E-4</v>
+        <v>0</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -3755,11 +3530,8 @@
       <c r="X35">
         <v>0</v>
       </c>
-      <c r="Y35">
-        <v>0</v>
-      </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2</v>
       </c>
@@ -3794,34 +3566,34 @@
         <v>64</v>
       </c>
       <c r="L36" t="s">
-        <v>24</v>
-      </c>
-      <c r="M36" t="s">
-        <v>43</v>
-      </c>
-      <c r="N36">
+        <v>23</v>
+      </c>
+      <c r="M36">
         <v>0.83642319389410502</v>
       </c>
-      <c r="O36" s="1">
+      <c r="N36" s="1">
         <v>5.4793527277718898E-5</v>
       </c>
-      <c r="P36">
+      <c r="O36">
         <v>0.83642319070344995</v>
       </c>
-      <c r="Q36" s="1">
+      <c r="P36" s="1">
         <v>1.8264509022924902E-5</v>
       </c>
+      <c r="Q36">
+        <v>2.6365466907353801</v>
+      </c>
       <c r="R36">
-        <v>2.6365466907353801</v>
+        <v>8.8316730823589896E-4</v>
       </c>
       <c r="S36">
-        <v>8.8316730823589896E-4</v>
+        <v>2.63654674216267</v>
       </c>
       <c r="T36">
-        <v>2.63654674216267</v>
+        <v>2.9438910162216098E-4</v>
       </c>
       <c r="U36">
-        <v>2.9438910162216098E-4</v>
+        <v>0</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -3832,11 +3604,8 @@
       <c r="X36">
         <v>0</v>
       </c>
-      <c r="Y36">
-        <v>0</v>
-      </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>14</v>
       </c>
@@ -3871,34 +3640,34 @@
         <v>16</v>
       </c>
       <c r="L37" t="s">
-        <v>28</v>
-      </c>
-      <c r="M37" t="s">
-        <v>44</v>
-      </c>
-      <c r="N37">
+        <v>24</v>
+      </c>
+      <c r="M37">
         <v>0.83642319389410502</v>
       </c>
-      <c r="O37" s="1">
+      <c r="N37" s="1">
         <v>5.4793527277718898E-5</v>
       </c>
-      <c r="P37">
+      <c r="O37">
         <v>0.83642319070344995</v>
       </c>
-      <c r="Q37" s="1">
+      <c r="P37" s="1">
         <v>1.8264509022924902E-5</v>
       </c>
+      <c r="Q37">
+        <v>2.6365466907353801</v>
+      </c>
       <c r="R37">
-        <v>2.6365466907353801</v>
+        <v>8.8316730823589896E-4</v>
       </c>
       <c r="S37">
-        <v>8.8316730823589896E-4</v>
+        <v>2.63654674216267</v>
       </c>
       <c r="T37">
-        <v>2.63654674216267</v>
+        <v>2.9438910162216098E-4</v>
       </c>
       <c r="U37">
-        <v>2.9438910162216098E-4</v>
+        <v>0</v>
       </c>
       <c r="V37">
         <v>0</v>
@@ -3909,11 +3678,8 @@
       <c r="X37">
         <v>0</v>
       </c>
-      <c r="Y37">
-        <v>0</v>
-      </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>12</v>
       </c>
@@ -3948,34 +3714,34 @@
         <v>16</v>
       </c>
       <c r="L38" t="s">
-        <v>28</v>
-      </c>
-      <c r="M38" t="s">
-        <v>29</v>
-      </c>
-      <c r="N38">
+        <v>24</v>
+      </c>
+      <c r="M38">
         <v>0.83639044137216101</v>
       </c>
-      <c r="O38" s="1">
+      <c r="N38" s="1">
         <v>9.9044263447061498E-5</v>
       </c>
-      <c r="P38">
+      <c r="O38">
         <v>0.83642319070344995</v>
       </c>
-      <c r="Q38" s="1">
+      <c r="P38" s="1">
         <v>1.8264509022924902E-5</v>
       </c>
+      <c r="Q38">
+        <v>2.6370745990136299</v>
+      </c>
       <c r="R38">
-        <v>2.6370745990136299</v>
+        <v>1.59640490204071E-3</v>
       </c>
       <c r="S38">
-        <v>1.59640490204071E-3</v>
+        <v>2.63654674216267</v>
       </c>
       <c r="T38">
-        <v>2.63654674216267</v>
+        <v>2.9438910162216098E-4</v>
       </c>
       <c r="U38">
-        <v>2.9438910162216098E-4</v>
+        <v>0</v>
       </c>
       <c r="V38">
         <v>0</v>
@@ -3986,11 +3752,8 @@
       <c r="X38">
         <v>0</v>
       </c>
-      <c r="Y38">
-        <v>0</v>
-      </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>19</v>
       </c>
@@ -4025,49 +3788,46 @@
         <v>16</v>
       </c>
       <c r="L39" t="s">
-        <v>24</v>
-      </c>
-      <c r="M39" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="M39">
+        <v>0.66823899371069095</v>
       </c>
       <c r="N39">
-        <v>0.66823899371069095</v>
+        <v>0.29133521824087</v>
       </c>
       <c r="O39">
-        <v>0.29133521824087</v>
+        <v>0.66820246309721298</v>
       </c>
       <c r="P39">
-        <v>0.66820246309721298</v>
+        <v>0.29135630246265898</v>
       </c>
       <c r="Q39">
-        <v>0.29135630246265898</v>
+        <v>5.3473556995632103</v>
       </c>
       <c r="R39">
-        <v>5.3473556995632103</v>
+        <v>4.6957688851562596</v>
       </c>
       <c r="S39">
-        <v>4.6957688851562596</v>
+        <v>5.3479445034817896</v>
       </c>
       <c r="T39">
-        <v>5.3479445034817896</v>
+        <v>4.6961087226576996</v>
       </c>
       <c r="U39">
-        <v>4.6961087226576996</v>
+        <v>0.25</v>
       </c>
       <c r="V39">
+        <v>0.43301270189221902</v>
+      </c>
+      <c r="W39">
         <v>0.25</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>0.43301270189221902</v>
       </c>
-      <c r="X39">
-        <v>0.25</v>
-      </c>
-      <c r="Y39">
-        <v>0.43301270189221902</v>
-      </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>33</v>
       </c>
@@ -4102,49 +3862,46 @@
         <v>16</v>
       </c>
       <c r="L40" t="s">
-        <v>24</v>
-      </c>
-      <c r="M40" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="M40">
+        <v>0.66818420018341396</v>
       </c>
       <c r="N40">
-        <v>0.66818420018341396</v>
+        <v>0.29136685329822098</v>
       </c>
       <c r="O40">
-        <v>0.29136685329822098</v>
+        <v>0.66822072760623596</v>
       </c>
       <c r="P40">
-        <v>0.66822072760623596</v>
+        <v>0.29134575744347202</v>
       </c>
       <c r="Q40">
-        <v>0.29134575744347202</v>
+        <v>5.3482388668714602</v>
       </c>
       <c r="R40">
-        <v>5.3482388668714602</v>
+        <v>4.6962787820334304</v>
       </c>
       <c r="S40">
-        <v>4.6962787820334304</v>
+        <v>5.34765011438017</v>
       </c>
       <c r="T40">
-        <v>5.34765011438017</v>
+        <v>4.6959387570308397</v>
       </c>
       <c r="U40">
-        <v>4.6959387570308397</v>
+        <v>0.25</v>
       </c>
       <c r="V40">
+        <v>0.43301270189221902</v>
+      </c>
+      <c r="W40">
         <v>0.25</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>0.43301270189221902</v>
       </c>
-      <c r="X40">
-        <v>0.25</v>
-      </c>
-      <c r="Y40">
-        <v>0.43301270189221902</v>
-      </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>29</v>
       </c>
@@ -4179,55 +3936,52 @@
         <v>32</v>
       </c>
       <c r="L41" t="s">
-        <v>24</v>
-      </c>
-      <c r="M41" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="M41">
+        <v>0.66818420018341396</v>
       </c>
       <c r="N41">
-        <v>0.66818420018341396</v>
+        <v>0.29136685329822098</v>
       </c>
       <c r="O41">
-        <v>0.29136685329822098</v>
+        <v>0.66822072760623596</v>
       </c>
       <c r="P41">
-        <v>0.66822072760623596</v>
+        <v>0.29134575744347202</v>
       </c>
       <c r="Q41">
-        <v>0.29134575744347202</v>
+        <v>5.3482388668714602</v>
       </c>
       <c r="R41">
-        <v>5.3482388668714602</v>
+        <v>4.6962787820334304</v>
       </c>
       <c r="S41">
-        <v>4.6962787820334304</v>
+        <v>5.34765011438017</v>
       </c>
       <c r="T41">
-        <v>5.34765011438017</v>
+        <v>4.6959387570308397</v>
       </c>
       <c r="U41">
-        <v>4.6959387570308397</v>
+        <v>0.25</v>
       </c>
       <c r="V41">
+        <v>0.43301270189221902</v>
+      </c>
+      <c r="W41">
         <v>0.25</v>
       </c>
-      <c r="W41">
-        <v>0.43301270189221902</v>
-      </c>
       <c r="X41">
-        <v>0.25</v>
-      </c>
-      <c r="Y41">
         <v>0.43301270189221902</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y41"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y20">
-    <sortCondition descending="1" ref="N2:N41"/>
+  <autoFilter ref="A1:X41" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X20">
+    <sortCondition descending="1" ref="M2:M41"/>
     <sortCondition ref="I2:I41"/>
   </sortState>
-  <conditionalFormatting sqref="N2:O41">
+  <conditionalFormatting sqref="M2:N41">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -4239,7 +3993,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:S41">
+  <conditionalFormatting sqref="O2:R41">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -4251,7 +4005,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2:W41">
+  <conditionalFormatting sqref="S2:V41">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -4263,7 +4017,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:Y41">
+  <conditionalFormatting sqref="W2:X41">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -4275,7 +4029,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N41">
+  <conditionalFormatting sqref="M2:M41">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -4287,7 +4041,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O42">
+  <conditionalFormatting sqref="N2:N42">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -4299,7 +4053,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P41">
+  <conditionalFormatting sqref="O2:O41">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -4311,7 +4065,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q41">
+  <conditionalFormatting sqref="P2:P41">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -4323,7 +4077,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O41">
+  <conditionalFormatting sqref="N2:N41">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -4335,7 +4089,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R41">
+  <conditionalFormatting sqref="Q2:Q41">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -4347,7 +4101,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S41">
+  <conditionalFormatting sqref="R2:R41">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -4359,7 +4113,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T41">
+  <conditionalFormatting sqref="S2:S41">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -4371,7 +4125,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U2:U41">
+  <conditionalFormatting sqref="T2:T41">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -4383,7 +4137,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V41">
+  <conditionalFormatting sqref="U2:U41">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -4395,7 +4149,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W41">
+  <conditionalFormatting sqref="V2:V41">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -4407,7 +4161,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:X41">
+  <conditionalFormatting sqref="W2:W41">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -4419,7 +4173,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:Y41">
+  <conditionalFormatting sqref="X2:X41">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/resources/results/randomsearch/randomsearch_results.xlsx
+++ b/resources/results/randomsearch/randomsearch_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valentin\Documents\10. Semester\WR2\Projekt 3 - FNN CLF\WR-2-3-FFN-CLF\resources\results\randomsearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21E02376-9371-46B0-B1F0-BEAA9C8A6383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{960AEC1B-A893-4F48-B4EF-BCFF18F38D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
@@ -16,55 +16,67 @@
     <sheet name="randomsearch_results" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">randomsearch_results!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">randomsearch_results!$A$1:$K$67</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="12">
-  <si>
-    <t>mean_fit_time</t>
-  </si>
-  <si>
-    <t>param_optimizer__learning_rate</t>
-  </si>
-  <si>
-    <t>param_optimizer</t>
-  </si>
-  <si>
-    <t>param_model__n_hidden_layers</t>
-  </si>
-  <si>
-    <t>param_model__layer_size</t>
-  </si>
-  <si>
-    <t>param_model__dropout_rate</t>
-  </si>
-  <si>
-    <t>param_fit__batch_size</t>
-  </si>
-  <si>
-    <t>mean_test_accuracy</t>
-  </si>
-  <si>
-    <t>mean_test_recall</t>
-  </si>
-  <si>
-    <t>mean_test_ce</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="15">
   <si>
     <t>sgd</t>
   </si>
   <si>
     <t>adam</t>
   </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>recall</t>
+  </si>
+  <si>
+    <t>ce</t>
+  </si>
+  <si>
+    <t>batch_size</t>
+  </si>
+  <si>
+    <t>dropout_rate</t>
+  </si>
+  <si>
+    <t>layer_size</t>
+  </si>
+  <si>
+    <t>n_hidden_layers</t>
+  </si>
+  <si>
+    <t>optimizer</t>
+  </si>
+  <si>
+    <t>fit_time</t>
+  </si>
+  <si>
+    <t>Optimizer</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>n_hidden_layer</t>
+  </si>
+  <si>
+    <t>learning_rate</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -542,9 +554,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -900,239 +915,244 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K71"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:K103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11.5546875" style="1"/>
+    <col min="13" max="13" width="15.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B2">
-        <v>86.979270339012103</v>
-      </c>
-      <c r="C2">
-        <v>1E-4</v>
+        <v>403.13439774513199</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1E-3</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>800</v>
+        <v>3200</v>
       </c>
       <c r="G2">
         <v>0.3</v>
       </c>
       <c r="H2">
-        <v>64</v>
-      </c>
-      <c r="I2">
-        <v>0.97414611005692597</v>
-      </c>
-      <c r="J2">
-        <v>0.87755449591280599</v>
-      </c>
-      <c r="K2">
-        <v>0.416715568471063</v>
+        <v>32</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.96525142314990497</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.89424386920980903</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.56008098194018896</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B3">
-        <v>113.049830853939</v>
+        <v>403.12164890766098</v>
       </c>
       <c r="C3" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-3</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>3</v>
       </c>
       <c r="F3">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="G3">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H3">
         <v>32</v>
       </c>
-      <c r="I3">
-        <v>0.97260436432637498</v>
-      </c>
-      <c r="J3">
-        <v>0.87534059945503995</v>
-      </c>
-      <c r="K3">
-        <v>0.44156557347200398</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I3" s="2">
+        <v>0.96840607210626095</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.88964577656675703</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.50923404862990296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>268.23152238130501</v>
-      </c>
-      <c r="C4">
-        <v>1E-3</v>
+        <v>70.968782722949896</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.01</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F4">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="G4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>32</v>
-      </c>
-      <c r="I4">
-        <v>0.97205882352941098</v>
-      </c>
-      <c r="J4">
-        <v>0.87482970027247897</v>
-      </c>
-      <c r="K4">
-        <v>0.45035865216466497</v>
+        <v>64</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.959701138519924</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.88368528610354202</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.64954099994338599</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="B5">
-        <v>308.39683854579903</v>
-      </c>
-      <c r="C5">
+        <v>394.79689490795101</v>
+      </c>
+      <c r="C5" s="1">
         <v>1E-3</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>1600</v>
+      </c>
+      <c r="G5">
+        <v>0.2</v>
+      </c>
+      <c r="H5">
+        <v>16</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.97051707779886098</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.88113079019073504</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.47520865716623001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>86.979270339012103</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>4</v>
-      </c>
-      <c r="F5">
-        <v>3200</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>32</v>
-      </c>
-      <c r="I5">
-        <v>0.97177419354838701</v>
-      </c>
-      <c r="J5">
-        <v>0.86938010899182505</v>
-      </c>
-      <c r="K5">
-        <v>0.45494634539523798</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>34</v>
-      </c>
-      <c r="B6">
-        <v>227.73712468147201</v>
-      </c>
-      <c r="C6">
-        <v>0.1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
       </c>
       <c r="F6">
         <v>800</v>
       </c>
       <c r="G6">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H6">
-        <v>16</v>
-      </c>
-      <c r="I6">
-        <v>0.97175047438330098</v>
-      </c>
-      <c r="J6">
-        <v>0.85728882833787401</v>
-      </c>
-      <c r="K6">
-        <v>0.455328653163599</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.97414611005692597</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.87755449591280599</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.416715568471063</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B7">
-        <v>252.36517399549399</v>
-      </c>
-      <c r="C7">
-        <v>1E-3</v>
+        <v>216.38315975666001</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.01</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F7">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="G7">
         <v>0.2</v>
@@ -1140,521 +1160,521 @@
       <c r="H7">
         <v>16</v>
       </c>
-      <c r="I7">
-        <v>0.97170303605313002</v>
-      </c>
-      <c r="J7">
-        <v>0.87193460490463204</v>
-      </c>
-      <c r="K7">
-        <v>0.45609326870316902</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I7" s="2">
+        <v>0.96484819734345295</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.87721389645776504</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.566580214016152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B8">
-        <v>105.36107343435199</v>
+        <v>113.049830853939</v>
       </c>
       <c r="C8" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
       <c r="F8">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H8">
         <v>32</v>
       </c>
-      <c r="I8">
-        <v>0.97156072106261804</v>
-      </c>
-      <c r="J8">
-        <v>0.86358991825612996</v>
-      </c>
-      <c r="K8">
-        <v>0.45838711531804299</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I8" s="2">
+        <v>0.97260436432637498</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.87534059945503995</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.44156557347200398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B9">
-        <v>125.39912569522799</v>
-      </c>
-      <c r="C9">
+        <v>268.23152238130501</v>
+      </c>
+      <c r="C9" s="1">
         <v>1E-3</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>400</v>
+      </c>
+      <c r="G9">
+        <v>0.1</v>
+      </c>
+      <c r="H9">
+        <v>32</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.97205882352941098</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.87482970027247897</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.45035865216466497</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>212.461020112037</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>3200</v>
+      </c>
+      <c r="G10">
+        <v>0.2</v>
+      </c>
+      <c r="H10">
+        <v>32</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.96800284629981004</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.87363760217983599</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.51573328070594104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>38</v>
+      </c>
+      <c r="B11">
+        <v>1698.0076797604499</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>5</v>
       </c>
-      <c r="F9">
+      <c r="F11">
         <v>1600</v>
-      </c>
-      <c r="G9">
-        <v>0.3</v>
-      </c>
-      <c r="H9">
-        <v>64</v>
-      </c>
-      <c r="I9">
-        <v>0.97120493358633697</v>
-      </c>
-      <c r="J9">
-        <v>0.85388283378746599</v>
-      </c>
-      <c r="K9">
-        <v>0.46412173185604799</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>57</v>
-      </c>
-      <c r="B10">
-        <v>66.937452554702702</v>
-      </c>
-      <c r="C10">
-        <v>0.01</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>400</v>
-      </c>
-      <c r="G10">
-        <v>0.1</v>
-      </c>
-      <c r="H10">
-        <v>64</v>
-      </c>
-      <c r="I10">
-        <v>0.97108633776091002</v>
-      </c>
-      <c r="J10">
-        <v>0.86341961852861004</v>
-      </c>
-      <c r="K10">
-        <v>0.466033270702985</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>43</v>
-      </c>
-      <c r="B11">
-        <v>180.18221104144999</v>
-      </c>
-      <c r="C11">
-        <v>1E-3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>3200</v>
       </c>
       <c r="G11">
         <v>0.3</v>
       </c>
       <c r="H11">
-        <v>32</v>
-      </c>
-      <c r="I11">
-        <v>0.97108633776091002</v>
-      </c>
-      <c r="J11">
-        <v>0.855245231607629</v>
-      </c>
-      <c r="K11">
-        <v>0.46603327070238598</v>
+        <v>16</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.96885673624288404</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.87261580381471304</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.50197020101294698</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>396.63413822650898</v>
-      </c>
-      <c r="C12">
-        <v>0.1</v>
+        <v>188.88823300600001</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.01</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12">
-        <v>3200</v>
+        <v>1600</v>
       </c>
       <c r="G12">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H12">
         <v>16</v>
       </c>
-      <c r="I12">
-        <v>0.97106261859582499</v>
-      </c>
-      <c r="J12">
-        <v>0.86222752043596695</v>
-      </c>
-      <c r="K12">
-        <v>0.46641557847214599</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I12" s="2">
+        <v>0.96631878557874695</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.87261580381471304</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.54287713232245505</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B13">
-        <v>359.46925055980603</v>
-      </c>
-      <c r="C13">
+        <v>363.19147121906201</v>
+      </c>
+      <c r="C13" s="1">
         <v>1E-3</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F13">
-        <v>3200</v>
+        <v>400</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H13">
         <v>16</v>
       </c>
-      <c r="I13">
-        <v>0.97089658444022697</v>
-      </c>
-      <c r="J13">
-        <v>0.85081743869209803</v>
-      </c>
-      <c r="K13">
-        <v>0.469091732856044</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I13" s="2">
+        <v>0.970683111954459</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.87244550408719301</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.47253250278085901</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>121.39688986539799</v>
-      </c>
-      <c r="C14">
-        <v>0.1</v>
+        <v>252.36517399549399</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1E-3</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F14">
         <v>400</v>
       </c>
       <c r="G14">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H14">
-        <v>32</v>
-      </c>
-      <c r="I14">
-        <v>0.97084914611005702</v>
-      </c>
-      <c r="J14">
-        <v>0.86290871934604896</v>
-      </c>
-      <c r="K14">
-        <v>0.46985634839542501</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.97170303605313002</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.87193460490463204</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.45609326870316902</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>100.805154919624</v>
-      </c>
-      <c r="C15">
-        <v>0.01</v>
+        <v>158.54879581928199</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.1</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F15">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H15">
         <v>32</v>
       </c>
-      <c r="I15">
-        <v>0.97082542694497098</v>
-      </c>
-      <c r="J15">
-        <v>0.87108310626703001</v>
-      </c>
-      <c r="K15">
-        <v>0.470238656165272</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I15" s="2">
+        <v>0.96838235294117603</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0.87125340599455003</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0.50961635639780201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B16">
-        <v>1663.9082673788</v>
-      </c>
-      <c r="C16">
-        <v>1E-4</v>
+        <v>100.805154919624</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.01</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>4</v>
       </c>
       <c r="F16">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="G16">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>16</v>
-      </c>
-      <c r="I16">
-        <v>0.97070683111954403</v>
-      </c>
-      <c r="J16">
-        <v>0.84741144414168901</v>
-      </c>
-      <c r="K16">
-        <v>0.47215019500977601</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.97082542694497098</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.87108310626703001</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.470238656165272</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B17">
-        <v>363.19147121906201</v>
-      </c>
-      <c r="C17">
+        <v>308.39683854579903</v>
+      </c>
+      <c r="C17" s="1">
         <v>1E-3</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17">
-        <v>400</v>
+        <v>3200</v>
       </c>
       <c r="G17">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>16</v>
-      </c>
-      <c r="I17">
-        <v>0.970683111954459</v>
-      </c>
-      <c r="J17">
-        <v>0.87244550408719301</v>
-      </c>
-      <c r="K17">
-        <v>0.47253250278085901</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.97177419354838701</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.86938010899182505</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0.45494634539523798</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="B18">
-        <v>193.12571364641099</v>
-      </c>
-      <c r="C18">
-        <v>1E-4</v>
+        <v>105.36107343435199</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>400</v>
       </c>
       <c r="G18">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>16</v>
-      </c>
-      <c r="I18">
-        <v>0.97065939278937297</v>
-      </c>
-      <c r="J18">
-        <v>0.850647138964577</v>
-      </c>
-      <c r="K18">
-        <v>0.47291481054850798</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.97156072106261804</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.86358991825612996</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.45838711531804299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>394.79689490795101</v>
-      </c>
-      <c r="C19">
-        <v>1E-3</v>
+        <v>66.937452554702702</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.01</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="G19">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H19">
-        <v>16</v>
-      </c>
-      <c r="I19">
-        <v>0.97051707779886098</v>
-      </c>
-      <c r="J19">
-        <v>0.88113079019073504</v>
-      </c>
-      <c r="K19">
-        <v>0.47520865716623001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.97108633776091002</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0.86341961852861004</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0.466033270702985</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B20">
-        <v>194.58222633600201</v>
-      </c>
-      <c r="C20">
-        <v>1E-3</v>
+        <v>121.39688986539799</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.1</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>5</v>
       </c>
       <c r="F20">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H20">
-        <v>64</v>
-      </c>
-      <c r="I20">
-        <v>0.97035104364326297</v>
-      </c>
-      <c r="J20">
-        <v>0.85609673024523103</v>
-      </c>
-      <c r="K20">
-        <v>0.47788481154912898</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.97084914611005702</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.86290871934604896</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0.46985634839542501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B21">
-        <v>152.883551418781</v>
-      </c>
-      <c r="C21">
-        <v>1E-3</v>
+        <v>114.14800709486001</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F21">
-        <v>800</v>
+        <v>3200</v>
       </c>
       <c r="G21">
         <v>0.3</v>
       </c>
       <c r="H21">
-        <v>16</v>
-      </c>
-      <c r="I21">
-        <v>0.96997153700189698</v>
-      </c>
-      <c r="J21">
-        <v>0.83702316076294203</v>
-      </c>
-      <c r="K21">
-        <v>0.484001735855694</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0.96494307400379498</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0.86256811989100801</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0.56505098293808698</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B22">
-        <v>113.347011327743</v>
-      </c>
-      <c r="C22">
-        <v>1E-3</v>
+        <v>396.63413822650898</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.1</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F22">
         <v>3200</v>
@@ -1663,386 +1683,386 @@
         <v>0.2</v>
       </c>
       <c r="H22">
+        <v>16</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.97106261859582499</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0.86222752043596695</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0.46641557847214599</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>137.02806097269001</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>3200</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>64</v>
       </c>
-      <c r="I22">
-        <v>0.96997153700189698</v>
-      </c>
-      <c r="J22">
-        <v>0.83106267029972702</v>
-      </c>
-      <c r="K22">
-        <v>0.48400173585525702</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>5</v>
-      </c>
-      <c r="B23">
-        <v>110.80479246377899</v>
-      </c>
-      <c r="C23">
-        <v>1E-3</v>
-      </c>
-      <c r="D23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23">
-        <v>5</v>
-      </c>
-      <c r="F23">
-        <v>400</v>
-      </c>
-      <c r="G23">
-        <v>0.3</v>
-      </c>
-      <c r="H23">
-        <v>32</v>
-      </c>
-      <c r="I23">
-        <v>0.96994781783681205</v>
-      </c>
-      <c r="J23">
-        <v>0.82901907356948201</v>
-      </c>
-      <c r="K23">
-        <v>0.484384043624355</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I23" s="2">
+        <v>0.96522770398481905</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0.86137602179836503</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0.56046328970702697</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B24">
-        <v>49.228175938129397</v>
+        <v>126.613592743873</v>
       </c>
       <c r="C24" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>0.1</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>5</v>
       </c>
       <c r="F24">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H24">
+        <v>32</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.96885673624288404</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0.861205722070844</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0.50197020101211098</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>14</v>
+      </c>
+      <c r="B25">
+        <v>54.094026446342397</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D25" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>400</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>64</v>
       </c>
-      <c r="I24">
-        <v>0.96961574952561602</v>
-      </c>
-      <c r="J24">
-        <v>0.83634196185286103</v>
-      </c>
-      <c r="K24">
-        <v>0.48973635239435998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>38</v>
-      </c>
-      <c r="B25">
-        <v>1698.0076797604499</v>
-      </c>
-      <c r="C25">
-        <v>1E-4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25">
-        <v>5</v>
-      </c>
-      <c r="F25">
-        <v>1600</v>
-      </c>
-      <c r="G25">
-        <v>0.3</v>
-      </c>
-      <c r="H25">
-        <v>16</v>
-      </c>
-      <c r="I25">
-        <v>0.96885673624288404</v>
-      </c>
-      <c r="J25">
-        <v>0.87261580381471304</v>
-      </c>
-      <c r="K25">
-        <v>0.50197020101294698</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I25" s="2">
+        <v>0.96845351043643202</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0.85745912806539504</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0.50846943308904802</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>126.613592743873</v>
-      </c>
-      <c r="C26">
+        <v>227.73712468147201</v>
+      </c>
+      <c r="C26" s="1">
         <v>0.1</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>5</v>
       </c>
       <c r="F26">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="G26">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H26">
-        <v>32</v>
-      </c>
-      <c r="I26">
-        <v>0.96885673624288404</v>
-      </c>
-      <c r="J26">
-        <v>0.861205722070844</v>
-      </c>
-      <c r="K26">
-        <v>0.50197020101211098</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.97175047438330098</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0.85728882833787401</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0.455328653163599</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="B27">
-        <v>90.971334695815997</v>
-      </c>
-      <c r="C27">
+        <v>194.58222633600201</v>
+      </c>
+      <c r="C27" s="1">
         <v>1E-3</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F27">
         <v>1600</v>
       </c>
       <c r="G27">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>64</v>
       </c>
-      <c r="I27">
-        <v>0.96876185958254202</v>
-      </c>
-      <c r="J27">
-        <v>0.845367847411444</v>
-      </c>
-      <c r="K27">
-        <v>0.50349943208794001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I27" s="2">
+        <v>0.97035104364326297</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0.85609673024523103</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0.47788481154912898</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B28">
-        <v>54.094026446342397</v>
-      </c>
-      <c r="C28">
-        <v>0.01</v>
+        <v>180.18221104144999</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1E-3</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>400</v>
+        <v>3200</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H28">
-        <v>64</v>
-      </c>
-      <c r="I28">
-        <v>0.96845351043643202</v>
-      </c>
-      <c r="J28">
-        <v>0.85745912806539504</v>
-      </c>
-      <c r="K28">
-        <v>0.50846943308904802</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0.97108633776091002</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0.855245231607629</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0.46603327070238598</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B29">
-        <v>403.12164890766098</v>
-      </c>
-      <c r="C29">
+        <v>125.39912569522799</v>
+      </c>
+      <c r="C29" s="1">
         <v>1E-3</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F29">
-        <v>3200</v>
+        <v>1600</v>
       </c>
       <c r="G29">
         <v>0.3</v>
       </c>
       <c r="H29">
-        <v>32</v>
-      </c>
-      <c r="I29">
-        <v>0.96840607210626095</v>
-      </c>
-      <c r="J29">
-        <v>0.88964577656675703</v>
-      </c>
-      <c r="K29">
-        <v>0.50923404862990296</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0.97120493358633697</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0.85388283378746599</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0.46412173185604799</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B30">
-        <v>158.54879581928199</v>
-      </c>
-      <c r="C30">
+        <v>52.453238964080803</v>
+      </c>
+      <c r="C30" s="1">
         <v>0.1</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>5</v>
       </c>
       <c r="F30">
+        <v>800</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>64</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0.968287476280835</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0.85183923705721998</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0.51114558747337002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>61</v>
+      </c>
+      <c r="B31">
+        <v>359.46925055980603</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31">
         <v>3200</v>
       </c>
-      <c r="G30">
-        <v>0.2</v>
-      </c>
-      <c r="H30">
-        <v>32</v>
-      </c>
-      <c r="I30">
-        <v>0.96838235294117603</v>
-      </c>
-      <c r="J30">
-        <v>0.87125340599455003</v>
-      </c>
-      <c r="K30">
-        <v>0.50961635639780201</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>3</v>
-      </c>
-      <c r="B31">
-        <v>52.453238964080803</v>
-      </c>
-      <c r="C31">
-        <v>0.1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31">
-        <v>5</v>
-      </c>
-      <c r="F31">
-        <v>800</v>
-      </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
+        <v>16</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0.97089658444022697</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0.85081743869209803</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0.469091732856044</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>64</v>
       </c>
-      <c r="I31">
-        <v>0.968287476280835</v>
-      </c>
-      <c r="J31">
-        <v>0.85183923705721998</v>
-      </c>
-      <c r="K31">
-        <v>0.51114558747337002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>12</v>
-      </c>
       <c r="B32">
-        <v>212.461020112037</v>
+        <v>193.12571364641099</v>
       </c>
       <c r="C32" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-4</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E32">
         <v>6</v>
       </c>
       <c r="F32">
-        <v>3200</v>
+        <v>400</v>
       </c>
       <c r="G32">
         <v>0.2</v>
       </c>
       <c r="H32">
-        <v>32</v>
-      </c>
-      <c r="I32">
-        <v>0.96800284629981004</v>
-      </c>
-      <c r="J32">
-        <v>0.87363760217983599</v>
-      </c>
-      <c r="K32">
-        <v>0.51573328070594104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0.97065939278937297</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0.850647138964577</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0.47291481054850798</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B33">
-        <v>164.133486270904</v>
-      </c>
-      <c r="C33">
-        <v>1E-3</v>
+        <v>57.940147995948699</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.1</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F33">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="G33">
         <v>0.3</v>
@@ -2050,98 +2070,98 @@
       <c r="H33">
         <v>64</v>
       </c>
-      <c r="I33">
-        <v>0.96771821631878496</v>
-      </c>
-      <c r="J33">
-        <v>0.84213215258855501</v>
-      </c>
-      <c r="K33">
-        <v>0.52032097393460397</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I33" s="2">
+        <v>0.96693548387096695</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0.84911444141689296</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0.532937130320291</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B34">
-        <v>1245.79071867465</v>
-      </c>
-      <c r="C34">
+        <v>1663.9082673788</v>
+      </c>
+      <c r="C34" s="1">
         <v>1E-4</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F34">
-        <v>3200</v>
+        <v>400</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H34">
         <v>16</v>
       </c>
-      <c r="I34">
-        <v>0.96750474383301699</v>
-      </c>
-      <c r="J34">
-        <v>0.82135558583106205</v>
-      </c>
-      <c r="K34">
-        <v>0.52376174385631002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I34" s="2">
+        <v>0.97070683111954403</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0.84741144414168901</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0.47215019500977601</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="B35">
-        <v>57.940147995948699</v>
-      </c>
-      <c r="C35">
-        <v>0.1</v>
+        <v>90.971334695815997</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1E-3</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E35">
         <v>4</v>
       </c>
       <c r="F35">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="G35">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H35">
         <v>64</v>
       </c>
-      <c r="I35">
-        <v>0.96693548387096695</v>
-      </c>
-      <c r="J35">
-        <v>0.84911444141689296</v>
-      </c>
-      <c r="K35">
-        <v>0.532937130320291</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I35" s="2">
+        <v>0.96876185958254202</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0.845367847411444</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0.50349943208794001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B36">
-        <v>188.88823300600001</v>
-      </c>
-      <c r="C36">
-        <v>0.01</v>
+        <v>164.133486270904</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1E-3</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E36">
         <v>5</v>
@@ -2153,240 +2173,240 @@
         <v>0.3</v>
       </c>
       <c r="H36">
-        <v>16</v>
-      </c>
-      <c r="I36">
-        <v>0.96631878557874695</v>
-      </c>
-      <c r="J36">
-        <v>0.87261580381471304</v>
-      </c>
-      <c r="K36">
-        <v>0.54287713232245505</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0.96771821631878496</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0.84213215258855501</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0.52032097393460397</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="B37">
-        <v>106.454824626445</v>
-      </c>
-      <c r="C37">
-        <v>0.1</v>
+        <v>152.883551418781</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1E-3</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E37">
         <v>3</v>
       </c>
       <c r="F37">
-        <v>3200</v>
+        <v>800</v>
       </c>
       <c r="G37">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H37">
-        <v>32</v>
-      </c>
-      <c r="I37">
-        <v>0.96579696394686898</v>
-      </c>
-      <c r="J37">
-        <v>0.81965258855585799</v>
-      </c>
-      <c r="K37">
-        <v>0.55128790324202304</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0.96997153700189698</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0.83702316076294203</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0.484001735855694</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>403.13439774513199</v>
-      </c>
-      <c r="C38">
-        <v>1E-3</v>
+        <v>49.228175938129397</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E38">
         <v>5</v>
       </c>
       <c r="F38">
-        <v>3200</v>
+        <v>800</v>
       </c>
       <c r="G38">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>32</v>
-      </c>
-      <c r="I38">
-        <v>0.96525142314990497</v>
-      </c>
-      <c r="J38">
-        <v>0.89424386920980903</v>
-      </c>
-      <c r="K38">
-        <v>0.56008098194018896</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0.96961574952561602</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0.83634196185286103</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0.48973635239435998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B39">
-        <v>137.02806097269001</v>
-      </c>
-      <c r="C39">
-        <v>0.1</v>
+        <v>113.347011327743</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1E-3</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F39">
         <v>3200</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H39">
         <v>64</v>
       </c>
-      <c r="I39">
-        <v>0.96522770398481905</v>
-      </c>
-      <c r="J39">
-        <v>0.86137602179836503</v>
-      </c>
-      <c r="K39">
-        <v>0.56046328970702697</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I39" s="2">
+        <v>0.96997153700189698</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0.83106267029972702</v>
+      </c>
+      <c r="K39" s="2">
+        <v>0.48400173585525702</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B40">
-        <v>114.14800709486001</v>
+        <v>110.80479246377899</v>
       </c>
       <c r="C40" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-3</v>
       </c>
       <c r="D40" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E40">
         <v>5</v>
       </c>
       <c r="F40">
-        <v>3200</v>
+        <v>400</v>
       </c>
       <c r="G40">
         <v>0.3</v>
       </c>
       <c r="H40">
-        <v>64</v>
-      </c>
-      <c r="I40">
-        <v>0.96494307400379498</v>
-      </c>
-      <c r="J40">
-        <v>0.86256811989100801</v>
-      </c>
-      <c r="K40">
-        <v>0.56505098293808698</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0.96994781783681205</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0.82901907356948201</v>
+      </c>
+      <c r="K40" s="2">
+        <v>0.484384043624355</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B41">
-        <v>216.38315975666001</v>
-      </c>
-      <c r="C41">
-        <v>0.01</v>
+        <v>1245.79071867465</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1E-4</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F41">
-        <v>800</v>
+        <v>3200</v>
       </c>
       <c r="G41">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <v>16</v>
       </c>
-      <c r="I41">
-        <v>0.96484819734345295</v>
-      </c>
-      <c r="J41">
-        <v>0.87721389645776504</v>
-      </c>
-      <c r="K41">
-        <v>0.566580214016152</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I41" s="2">
+        <v>0.96750474383301699</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0.82135558583106205</v>
+      </c>
+      <c r="K41" s="2">
+        <v>0.52376174385631002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B42">
-        <v>70.968782722949896</v>
-      </c>
-      <c r="C42">
-        <v>0.01</v>
+        <v>106.454824626445</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.1</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F42">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H42">
-        <v>64</v>
-      </c>
-      <c r="I42">
-        <v>0.959701138519924</v>
-      </c>
-      <c r="J42">
-        <v>0.88368528610354202</v>
-      </c>
-      <c r="K42">
-        <v>0.64954099994338599</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0.96579696394686898</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0.81965258855585799</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0.55128790324202304</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>23</v>
       </c>
       <c r="B43">
         <v>507.50823658704701</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="1">
         <v>1E-3</v>
       </c>
       <c r="D43" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E43">
         <v>6</v>
@@ -2400,28 +2420,28 @@
       <c r="H43">
         <v>32</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="2">
         <v>0.93787950664136599</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="2">
         <v>0.66025204359672995</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="2">
         <v>1.00126414763492</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>54</v>
       </c>
       <c r="B44">
         <v>163.144023716449</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1">
         <v>0.01</v>
       </c>
       <c r="D44" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E44">
         <v>3</v>
@@ -2435,247 +2455,247 @@
       <c r="H44">
         <v>16</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="2">
         <v>0.86527514231499003</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="2">
         <v>4.9897820163487698E-2</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="2">
         <v>2.1715082292575101</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B45">
-        <v>364.544386804103</v>
-      </c>
-      <c r="C45">
-        <v>0.01</v>
+        <v>43.503495454788201</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F45">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="G45">
         <v>0.1</v>
       </c>
       <c r="H45">
-        <v>16</v>
-      </c>
-      <c r="I45">
-        <v>0.86072106261859505</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>2.2449113209494098</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0.85313092979127103</v>
+      </c>
+      <c r="J45" s="2">
+        <v>8.0040871934604907E-3</v>
+      </c>
+      <c r="K45" s="2">
+        <v>2.36724980710928</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B46">
-        <v>56.977051615714998</v>
-      </c>
-      <c r="C46">
-        <v>1E-4</v>
+        <v>57.337881803512502</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F46">
         <v>800</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H46">
         <v>32</v>
       </c>
-      <c r="I46">
-        <v>0.86072106261859505</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>2.2449113209494098</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I46" s="2">
+        <v>0.83685958254269399</v>
+      </c>
+      <c r="J46" s="2">
+        <v>6.81198910081743E-3</v>
+      </c>
+      <c r="K46" s="2">
+        <v>2.62951293681314</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="B47">
-        <v>50.075949430465698</v>
-      </c>
-      <c r="C47">
-        <v>1E-4</v>
+        <v>66.839978098869295</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F47">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="G47">
         <v>0.2</v>
       </c>
       <c r="H47">
-        <v>64</v>
-      </c>
-      <c r="I47">
-        <v>0.86072106261859505</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>2.2449113209494098</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0.85694971537001896</v>
+      </c>
+      <c r="J47" s="2">
+        <v>3.40599455040871E-4</v>
+      </c>
+      <c r="K47" s="2">
+        <v>2.3056982562598298</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="B48">
-        <v>142.677697062492</v>
-      </c>
-      <c r="C48">
-        <v>1E-4</v>
+        <v>63.480215549468902</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F48">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="G48">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H48">
-        <v>16</v>
-      </c>
-      <c r="I48">
-        <v>0.86072106261859505</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>2.2449113209494098</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0.860460151802656</v>
+      </c>
+      <c r="J48" s="2">
+        <v>1.7029972752043501E-4</v>
+      </c>
+      <c r="K48" s="2">
+        <v>2.2491167064111499</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>87.483532726764594</v>
-      </c>
-      <c r="C49">
-        <v>0.1</v>
+        <v>72.399803757667499</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D49" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F49">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="G49">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H49">
         <v>32</v>
       </c>
-      <c r="I49">
-        <v>0.86072106261859505</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>2.2449113209494098</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I49" s="2">
+        <v>0.85979601518026505</v>
+      </c>
+      <c r="J49" s="2">
+        <v>1.7029972752043501E-4</v>
+      </c>
+      <c r="K49" s="2">
+        <v>2.2598213239500899</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B50">
-        <v>38.353053689002898</v>
-      </c>
-      <c r="C50">
-        <v>1E-4</v>
+        <v>364.544386804103</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.01</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F50">
         <v>1600</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H50">
-        <v>64</v>
-      </c>
-      <c r="I50">
+        <v>16</v>
+      </c>
+      <c r="I50" s="2">
         <v>0.86072106261859505</v>
       </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
+      <c r="J50" s="2">
+        <v>0</v>
+      </c>
+      <c r="K50" s="2">
         <v>2.2449113209494098</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B51">
-        <v>82.057867586612701</v>
-      </c>
-      <c r="C51">
+        <v>56.977051615714998</v>
+      </c>
+      <c r="C51" s="1">
         <v>1E-4</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F51">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="G51">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H51">
         <v>32</v>
@@ -2690,30 +2710,30 @@
         <v>2.2449113209494098</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B52">
-        <v>144.563821911811</v>
-      </c>
-      <c r="C52">
-        <v>0.01</v>
+        <v>50.075949430465698</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1E-4</v>
       </c>
       <c r="D52" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F52">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="G52">
         <v>0.2</v>
       </c>
       <c r="H52">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I52">
         <v>0.86072106261859505</v>
@@ -2725,27 +2745,27 @@
         <v>2.2449113209494098</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B53">
-        <v>172.674603521823</v>
+        <v>142.677697062492</v>
       </c>
       <c r="C53" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-4</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F53">
-        <v>3200</v>
+        <v>1600</v>
       </c>
       <c r="G53">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="H53">
         <v>16</v>
@@ -2760,27 +2780,27 @@
         <v>2.2449113209494098</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
+        <v>50</v>
+      </c>
+      <c r="B54">
+        <v>87.483532726764594</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D54" t="s">
         <v>1</v>
       </c>
-      <c r="B54">
-        <v>77.256569623947101</v>
-      </c>
-      <c r="C54">
-        <v>0.1</v>
-      </c>
-      <c r="D54" t="s">
-        <v>11</v>
-      </c>
       <c r="E54">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F54">
         <v>400</v>
       </c>
       <c r="G54">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H54">
         <v>32</v>
@@ -2795,27 +2815,27 @@
         <v>2.2449113209494098</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B55">
-        <v>41.988286316394799</v>
-      </c>
-      <c r="C55">
+        <v>38.353053689002898</v>
+      </c>
+      <c r="C55" s="1">
         <v>1E-4</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F55">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="G55">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H55">
         <v>64</v>
@@ -2830,30 +2850,30 @@
         <v>2.2449113209494098</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B56">
-        <v>119.703189194202</v>
-      </c>
-      <c r="C56">
+        <v>82.057867586612701</v>
+      </c>
+      <c r="C56" s="1">
         <v>1E-4</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <v>6</v>
       </c>
       <c r="F56">
-        <v>3200</v>
+        <v>1600</v>
       </c>
       <c r="G56">
         <v>0.3</v>
       </c>
       <c r="H56">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="I56">
         <v>0.86072106261859505</v>
@@ -2865,263 +2885,263 @@
         <v>2.2449113209494098</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B57">
-        <v>79.012045979499803</v>
-      </c>
-      <c r="C57">
+        <v>144.563821911811</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="F57">
+        <v>800</v>
+      </c>
+      <c r="G57">
+        <v>0.2</v>
+      </c>
+      <c r="H57">
+        <v>16</v>
+      </c>
+      <c r="I57">
+        <v>0.86072106261859505</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>2.2449113209494098</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>59</v>
+      </c>
+      <c r="B58">
+        <v>172.674603521823</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D58" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>4</v>
+      </c>
+      <c r="F58">
+        <v>3200</v>
+      </c>
+      <c r="G58">
+        <v>0.3</v>
+      </c>
+      <c r="H58">
+        <v>16</v>
+      </c>
+      <c r="I58">
+        <v>0.86072106261859505</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>2.2449113209494098</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>77.256569623947101</v>
+      </c>
+      <c r="C59" s="1">
         <v>0.1</v>
       </c>
-      <c r="D57" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57">
-        <v>4</v>
-      </c>
-      <c r="F57">
-        <v>1600</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>64</v>
-      </c>
-      <c r="I57">
-        <v>0.86069734345351001</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>2.24529362871866</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>0</v>
-      </c>
-      <c r="B58">
-        <v>46.431917726993497</v>
-      </c>
-      <c r="C58">
-        <v>0.1</v>
-      </c>
-      <c r="D58" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58">
-        <v>3</v>
-      </c>
-      <c r="F58">
+      <c r="D59" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>5</v>
+      </c>
+      <c r="F59">
         <v>400</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>64</v>
-      </c>
-      <c r="I58">
-        <v>0.86062618595825402</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>2.2464405520263999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>52</v>
-      </c>
-      <c r="B59">
-        <v>45.848635673522899</v>
-      </c>
-      <c r="C59">
-        <v>0.01</v>
-      </c>
-      <c r="D59" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59">
-        <v>3</v>
-      </c>
-      <c r="F59">
-        <v>1600</v>
       </c>
       <c r="G59">
         <v>0.3</v>
       </c>
       <c r="H59">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="I59">
-        <v>0.86062618595825402</v>
+        <v>0.86072106261859505</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59">
-        <v>2.2464405520263999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.2449113209494098</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B60">
-        <v>63.480215549468902</v>
+        <v>41.988286316394799</v>
       </c>
       <c r="C60" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-4</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <v>5</v>
       </c>
       <c r="F60">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="G60">
         <v>0.3</v>
       </c>
       <c r="H60">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="I60">
-        <v>0.860460151802656</v>
+        <v>0.86072106261859505</v>
       </c>
       <c r="J60">
-        <v>1.7029972752043501E-4</v>
+        <v>0</v>
       </c>
       <c r="K60">
-        <v>2.2491167064111499</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.2449113209494098</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B61">
-        <v>94.477327883243504</v>
-      </c>
-      <c r="C61">
-        <v>0.01</v>
+        <v>119.703189194202</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1E-4</v>
       </c>
       <c r="D61" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F61">
         <v>3200</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H61">
         <v>64</v>
       </c>
       <c r="I61">
-        <v>0.860460151802656</v>
+        <v>0.86072106261859505</v>
       </c>
       <c r="J61">
         <v>0</v>
       </c>
       <c r="K61">
-        <v>2.2491167064111401</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.2449113209494098</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="B62">
-        <v>51.0062961578369</v>
+        <v>79.012045979499803</v>
       </c>
       <c r="C62" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>0.1</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F62">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="G62">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H62">
         <v>64</v>
       </c>
       <c r="I62">
-        <v>0.86041271347248505</v>
+        <v>0.86069734345351001</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
       <c r="K62">
-        <v>2.2498813219496299</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.24529362871866</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="B63">
-        <v>72.399803757667499</v>
+        <v>46.431917726993497</v>
       </c>
       <c r="C63" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>0.1</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E63">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F63">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="I63">
-        <v>0.85979601518026505</v>
+        <v>0.86062618595825402</v>
       </c>
       <c r="J63">
-        <v>1.7029972752043501E-4</v>
+        <v>0</v>
       </c>
       <c r="K63">
-        <v>2.2598213239500899</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.2464405520263999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B64">
-        <v>38.675606846809302</v>
+        <v>45.848635673522899</v>
       </c>
       <c r="C64" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>0.01</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E64">
         <v>3</v>
@@ -3130,238 +3150,345 @@
         <v>1600</v>
       </c>
       <c r="G64">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H64">
         <v>64</v>
       </c>
       <c r="I64">
-        <v>0.85939278937381403</v>
+        <v>0.86062618595825402</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
       <c r="K64">
-        <v>2.2663205560272899</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.2464405520263999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B65">
-        <v>66.839978098869295</v>
+        <v>94.477327883243504</v>
       </c>
       <c r="C65" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>0.01</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E65">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F65">
-        <v>400</v>
+        <v>3200</v>
       </c>
       <c r="G65">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="I65">
-        <v>0.85694971537001896</v>
+        <v>0.860460151802656</v>
       </c>
       <c r="J65">
-        <v>3.40599455040871E-4</v>
+        <v>0</v>
       </c>
       <c r="K65">
-        <v>2.3056982562598298</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.2491167064111401</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="B66">
-        <v>43.503495454788201</v>
+        <v>51.0062961578369</v>
       </c>
       <c r="C66" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F66">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="G66">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H66">
         <v>64</v>
       </c>
       <c r="I66">
-        <v>0.85313092979127103</v>
+        <v>0.86041271347248505</v>
       </c>
       <c r="J66">
-        <v>8.0040871934604907E-3</v>
+        <v>0</v>
       </c>
       <c r="K66">
-        <v>2.36724980710928</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.2498813219496299</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B67">
-        <v>57.337881803512502</v>
+        <v>38.675606846809302</v>
       </c>
       <c r="C67" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F67">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="G67">
         <v>0.1</v>
       </c>
       <c r="H67">
+        <v>64</v>
+      </c>
+      <c r="I67">
+        <v>0.85939278937381403</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>2.2663205560272899</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73">
+        <f>COUNTA(C73:E73)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74"/>
+      <c r="D74">
+        <v>1600</v>
+      </c>
+      <c r="E74">
+        <v>3200</v>
+      </c>
+      <c r="G74">
+        <f>COUNTA(C74:E74)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75">
+        <v>0.2</v>
+      </c>
+      <c r="D75">
+        <v>0.3</v>
+      </c>
+      <c r="G75">
+        <f>COUNTA(C75:E75)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>5</v>
+      </c>
+      <c r="E76">
+        <v>6</v>
+      </c>
+      <c r="G76">
+        <f>COUNTA(C76:E76)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77">
+        <v>16</v>
+      </c>
+      <c r="D77">
         <v>32</v>
       </c>
-      <c r="I67">
-        <v>0.83685958254269399</v>
-      </c>
-      <c r="J67">
-        <v>6.81198910081743E-3</v>
-      </c>
-      <c r="K67">
-        <v>2.62951293681314</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>24</v>
-      </c>
-      <c r="B68">
-        <v>149.306393444538</v>
-      </c>
-      <c r="C68" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D68" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68">
-        <v>5</v>
-      </c>
-      <c r="F68">
-        <v>3200</v>
-      </c>
-      <c r="G68">
-        <v>0.3</v>
-      </c>
-      <c r="H68">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>25</v>
-      </c>
-      <c r="B69">
-        <v>10.828763782977999</v>
-      </c>
-      <c r="C69">
-        <v>1E-4</v>
-      </c>
-      <c r="D69" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69">
-        <v>5</v>
-      </c>
-      <c r="F69">
-        <v>800</v>
-      </c>
-      <c r="G69">
-        <v>0.2</v>
-      </c>
-      <c r="H69">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>26</v>
-      </c>
-      <c r="B70">
-        <v>10.8290807008743</v>
-      </c>
-      <c r="C70">
+      <c r="G77">
+        <f>COUNTA(C77:E77)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78">
         <v>0.01</v>
       </c>
-      <c r="D70" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70">
-        <v>3</v>
-      </c>
-      <c r="F70">
+      <c r="D78">
+        <v>1E-3</v>
+      </c>
+      <c r="G78">
+        <f>COUNTA(C78:E78)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C79"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C80"/>
+      <c r="G80">
+        <f>PRODUCT(G73:G78)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C81"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C82"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C83"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C84"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C85"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C86"/>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C87"/>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C88"/>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C89"/>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C90"/>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C91"/>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C92"/>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C93"/>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C94"/>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C95"/>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C96"/>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C97"/>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C98"/>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C99"/>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C101"/>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C102"/>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103">
         <v>400</v>
       </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>27</v>
-      </c>
-      <c r="B71">
-        <v>10.8545987606048</v>
-      </c>
-      <c r="C71">
-        <v>0.01</v>
-      </c>
-      <c r="D71" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71">
-        <v>5</v>
-      </c>
-      <c r="F71">
-        <v>1600</v>
-      </c>
-      <c r="G71">
-        <v>0.3</v>
-      </c>
-      <c r="H71">
-        <v>64</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF71">
-    <sortCondition descending="1" ref="I2:I71"/>
-    <sortCondition descending="1" ref="J2:J71"/>
+  <autoFilter ref="A1:K67">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="0.001"/>
+        <filter val="0.01"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="sgd"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="3"/>
+        <filter val="5"/>
+        <filter val="6"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="1600"/>
+        <filter val="3200"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="7">
+      <filters>
+        <filter val="16"/>
+        <filter val="32"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q111">
+    <sortCondition descending="1" ref="J2:J111"/>
+    <sortCondition descending="1" ref="I2:I111"/>
   </sortState>
-  <conditionalFormatting sqref="I2:I67">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="I2:I50">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3372,8 +3499,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J67">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="J2:J50">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3385,7 +3512,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K67">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3396,6 +3523,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J43">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>